--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="491" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="802" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="416">
   <si>
     <t>[h]</t>
   </si>
@@ -1252,6 +1252,9 @@
   </si>
   <si>
     <t>S100A4</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>erythrocytes</t>
@@ -1327,7 +1330,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1350,6 +1353,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1387,7 +1396,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1552,11 +1561,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1569,20 +1590,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <sz val="10"/>
@@ -1681,7 +1689,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:AW42 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C41:E41 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2544,7 +2552,7 @@
   <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB42" activeCellId="0" sqref="A2:AW42"/>
+      <selection pane="topLeft" activeCell="AB42" activeCellId="1" sqref="C41:E41 AB42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6045,7 +6053,7 @@
   <dimension ref="1:42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="A2:AW42"/>
+      <selection pane="topLeft" activeCell="AW2" activeCellId="1" sqref="C41:E41 AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13372,7 +13380,7 @@
   <dimension ref="1:42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="A2:AW42"/>
+      <selection pane="topLeft" activeCell="AW2" activeCellId="1" sqref="C41:E41 AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -20640,7 +20648,7 @@
   <dimension ref="A1:AX42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:AW42"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C41:E41 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -26931,10 +26939,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AX42"/>
+  <dimension ref="1:42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW42" activeCellId="0" sqref="A2:AW42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AW42" activeCellId="1" sqref="C41:E41 AW42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -26944,6 +26952,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30" t="s">
         <v>313</v>
@@ -27086,6 +27095,981 @@
       <c r="AW1" s="30" t="s">
         <v>358</v>
       </c>
+      <c r="AX1" s="0"/>
+      <c r="AY1" s="0"/>
+      <c r="AZ1" s="0"/>
+      <c r="BA1" s="0"/>
+      <c r="BB1" s="0"/>
+      <c r="BC1" s="0"/>
+      <c r="BD1" s="0"/>
+      <c r="BE1" s="0"/>
+      <c r="BF1" s="0"/>
+      <c r="BG1" s="0"/>
+      <c r="BH1" s="0"/>
+      <c r="BI1" s="0"/>
+      <c r="BJ1" s="0"/>
+      <c r="BK1" s="0"/>
+      <c r="BL1" s="0"/>
+      <c r="BM1" s="0"/>
+      <c r="BN1" s="0"/>
+      <c r="BO1" s="0"/>
+      <c r="BP1" s="0"/>
+      <c r="BQ1" s="0"/>
+      <c r="BR1" s="0"/>
+      <c r="BS1" s="0"/>
+      <c r="BT1" s="0"/>
+      <c r="BU1" s="0"/>
+      <c r="BV1" s="0"/>
+      <c r="BW1" s="0"/>
+      <c r="BX1" s="0"/>
+      <c r="BY1" s="0"/>
+      <c r="BZ1" s="0"/>
+      <c r="CA1" s="0"/>
+      <c r="CB1" s="0"/>
+      <c r="CC1" s="0"/>
+      <c r="CD1" s="0"/>
+      <c r="CE1" s="0"/>
+      <c r="CF1" s="0"/>
+      <c r="CG1" s="0"/>
+      <c r="CH1" s="0"/>
+      <c r="CI1" s="0"/>
+      <c r="CJ1" s="0"/>
+      <c r="CK1" s="0"/>
+      <c r="CL1" s="0"/>
+      <c r="CM1" s="0"/>
+      <c r="CN1" s="0"/>
+      <c r="CO1" s="0"/>
+      <c r="CP1" s="0"/>
+      <c r="CQ1" s="0"/>
+      <c r="CR1" s="0"/>
+      <c r="CS1" s="0"/>
+      <c r="CT1" s="0"/>
+      <c r="CU1" s="0"/>
+      <c r="CV1" s="0"/>
+      <c r="CW1" s="0"/>
+      <c r="CX1" s="0"/>
+      <c r="CY1" s="0"/>
+      <c r="CZ1" s="0"/>
+      <c r="DA1" s="0"/>
+      <c r="DB1" s="0"/>
+      <c r="DC1" s="0"/>
+      <c r="DD1" s="0"/>
+      <c r="DE1" s="0"/>
+      <c r="DF1" s="0"/>
+      <c r="DG1" s="0"/>
+      <c r="DH1" s="0"/>
+      <c r="DI1" s="0"/>
+      <c r="DJ1" s="0"/>
+      <c r="DK1" s="0"/>
+      <c r="DL1" s="0"/>
+      <c r="DM1" s="0"/>
+      <c r="DN1" s="0"/>
+      <c r="DO1" s="0"/>
+      <c r="DP1" s="0"/>
+      <c r="DQ1" s="0"/>
+      <c r="DR1" s="0"/>
+      <c r="DS1" s="0"/>
+      <c r="DT1" s="0"/>
+      <c r="DU1" s="0"/>
+      <c r="DV1" s="0"/>
+      <c r="DW1" s="0"/>
+      <c r="DX1" s="0"/>
+      <c r="DY1" s="0"/>
+      <c r="DZ1" s="0"/>
+      <c r="EA1" s="0"/>
+      <c r="EB1" s="0"/>
+      <c r="EC1" s="0"/>
+      <c r="ED1" s="0"/>
+      <c r="EE1" s="0"/>
+      <c r="EF1" s="0"/>
+      <c r="EG1" s="0"/>
+      <c r="EH1" s="0"/>
+      <c r="EI1" s="0"/>
+      <c r="EJ1" s="0"/>
+      <c r="EK1" s="0"/>
+      <c r="EL1" s="0"/>
+      <c r="EM1" s="0"/>
+      <c r="EN1" s="0"/>
+      <c r="EO1" s="0"/>
+      <c r="EP1" s="0"/>
+      <c r="EQ1" s="0"/>
+      <c r="ER1" s="0"/>
+      <c r="ES1" s="0"/>
+      <c r="ET1" s="0"/>
+      <c r="EU1" s="0"/>
+      <c r="EV1" s="0"/>
+      <c r="EW1" s="0"/>
+      <c r="EX1" s="0"/>
+      <c r="EY1" s="0"/>
+      <c r="EZ1" s="0"/>
+      <c r="FA1" s="0"/>
+      <c r="FB1" s="0"/>
+      <c r="FC1" s="0"/>
+      <c r="FD1" s="0"/>
+      <c r="FE1" s="0"/>
+      <c r="FF1" s="0"/>
+      <c r="FG1" s="0"/>
+      <c r="FH1" s="0"/>
+      <c r="FI1" s="0"/>
+      <c r="FJ1" s="0"/>
+      <c r="FK1" s="0"/>
+      <c r="FL1" s="0"/>
+      <c r="FM1" s="0"/>
+      <c r="FN1" s="0"/>
+      <c r="FO1" s="0"/>
+      <c r="FP1" s="0"/>
+      <c r="FQ1" s="0"/>
+      <c r="FR1" s="0"/>
+      <c r="FS1" s="0"/>
+      <c r="FT1" s="0"/>
+      <c r="FU1" s="0"/>
+      <c r="FV1" s="0"/>
+      <c r="FW1" s="0"/>
+      <c r="FX1" s="0"/>
+      <c r="FY1" s="0"/>
+      <c r="FZ1" s="0"/>
+      <c r="GA1" s="0"/>
+      <c r="GB1" s="0"/>
+      <c r="GC1" s="0"/>
+      <c r="GD1" s="0"/>
+      <c r="GE1" s="0"/>
+      <c r="GF1" s="0"/>
+      <c r="GG1" s="0"/>
+      <c r="GH1" s="0"/>
+      <c r="GI1" s="0"/>
+      <c r="GJ1" s="0"/>
+      <c r="GK1" s="0"/>
+      <c r="GL1" s="0"/>
+      <c r="GM1" s="0"/>
+      <c r="GN1" s="0"/>
+      <c r="GO1" s="0"/>
+      <c r="GP1" s="0"/>
+      <c r="GQ1" s="0"/>
+      <c r="GR1" s="0"/>
+      <c r="GS1" s="0"/>
+      <c r="GT1" s="0"/>
+      <c r="GU1" s="0"/>
+      <c r="GV1" s="0"/>
+      <c r="GW1" s="0"/>
+      <c r="GX1" s="0"/>
+      <c r="GY1" s="0"/>
+      <c r="GZ1" s="0"/>
+      <c r="HA1" s="0"/>
+      <c r="HB1" s="0"/>
+      <c r="HC1" s="0"/>
+      <c r="HD1" s="0"/>
+      <c r="HE1" s="0"/>
+      <c r="HF1" s="0"/>
+      <c r="HG1" s="0"/>
+      <c r="HH1" s="0"/>
+      <c r="HI1" s="0"/>
+      <c r="HJ1" s="0"/>
+      <c r="HK1" s="0"/>
+      <c r="HL1" s="0"/>
+      <c r="HM1" s="0"/>
+      <c r="HN1" s="0"/>
+      <c r="HO1" s="0"/>
+      <c r="HP1" s="0"/>
+      <c r="HQ1" s="0"/>
+      <c r="HR1" s="0"/>
+      <c r="HS1" s="0"/>
+      <c r="HT1" s="0"/>
+      <c r="HU1" s="0"/>
+      <c r="HV1" s="0"/>
+      <c r="HW1" s="0"/>
+      <c r="HX1" s="0"/>
+      <c r="HY1" s="0"/>
+      <c r="HZ1" s="0"/>
+      <c r="IA1" s="0"/>
+      <c r="IB1" s="0"/>
+      <c r="IC1" s="0"/>
+      <c r="ID1" s="0"/>
+      <c r="IE1" s="0"/>
+      <c r="IF1" s="0"/>
+      <c r="IG1" s="0"/>
+      <c r="IH1" s="0"/>
+      <c r="II1" s="0"/>
+      <c r="IJ1" s="0"/>
+      <c r="IK1" s="0"/>
+      <c r="IL1" s="0"/>
+      <c r="IM1" s="0"/>
+      <c r="IN1" s="0"/>
+      <c r="IO1" s="0"/>
+      <c r="IP1" s="0"/>
+      <c r="IQ1" s="0"/>
+      <c r="IR1" s="0"/>
+      <c r="IS1" s="0"/>
+      <c r="IT1" s="0"/>
+      <c r="IU1" s="0"/>
+      <c r="IV1" s="0"/>
+      <c r="IW1" s="0"/>
+      <c r="IX1" s="0"/>
+      <c r="IY1" s="0"/>
+      <c r="IZ1" s="0"/>
+      <c r="JA1" s="0"/>
+      <c r="JB1" s="0"/>
+      <c r="JC1" s="0"/>
+      <c r="JD1" s="0"/>
+      <c r="JE1" s="0"/>
+      <c r="JF1" s="0"/>
+      <c r="JG1" s="0"/>
+      <c r="JH1" s="0"/>
+      <c r="JI1" s="0"/>
+      <c r="JJ1" s="0"/>
+      <c r="JK1" s="0"/>
+      <c r="JL1" s="0"/>
+      <c r="JM1" s="0"/>
+      <c r="JN1" s="0"/>
+      <c r="JO1" s="0"/>
+      <c r="JP1" s="0"/>
+      <c r="JQ1" s="0"/>
+      <c r="JR1" s="0"/>
+      <c r="JS1" s="0"/>
+      <c r="JT1" s="0"/>
+      <c r="JU1" s="0"/>
+      <c r="JV1" s="0"/>
+      <c r="JW1" s="0"/>
+      <c r="JX1" s="0"/>
+      <c r="JY1" s="0"/>
+      <c r="JZ1" s="0"/>
+      <c r="KA1" s="0"/>
+      <c r="KB1" s="0"/>
+      <c r="KC1" s="0"/>
+      <c r="KD1" s="0"/>
+      <c r="KE1" s="0"/>
+      <c r="KF1" s="0"/>
+      <c r="KG1" s="0"/>
+      <c r="KH1" s="0"/>
+      <c r="KI1" s="0"/>
+      <c r="KJ1" s="0"/>
+      <c r="KK1" s="0"/>
+      <c r="KL1" s="0"/>
+      <c r="KM1" s="0"/>
+      <c r="KN1" s="0"/>
+      <c r="KO1" s="0"/>
+      <c r="KP1" s="0"/>
+      <c r="KQ1" s="0"/>
+      <c r="KR1" s="0"/>
+      <c r="KS1" s="0"/>
+      <c r="KT1" s="0"/>
+      <c r="KU1" s="0"/>
+      <c r="KV1" s="0"/>
+      <c r="KW1" s="0"/>
+      <c r="KX1" s="0"/>
+      <c r="KY1" s="0"/>
+      <c r="KZ1" s="0"/>
+      <c r="LA1" s="0"/>
+      <c r="LB1" s="0"/>
+      <c r="LC1" s="0"/>
+      <c r="LD1" s="0"/>
+      <c r="LE1" s="0"/>
+      <c r="LF1" s="0"/>
+      <c r="LG1" s="0"/>
+      <c r="LH1" s="0"/>
+      <c r="LI1" s="0"/>
+      <c r="LJ1" s="0"/>
+      <c r="LK1" s="0"/>
+      <c r="LL1" s="0"/>
+      <c r="LM1" s="0"/>
+      <c r="LN1" s="0"/>
+      <c r="LO1" s="0"/>
+      <c r="LP1" s="0"/>
+      <c r="LQ1" s="0"/>
+      <c r="LR1" s="0"/>
+      <c r="LS1" s="0"/>
+      <c r="LT1" s="0"/>
+      <c r="LU1" s="0"/>
+      <c r="LV1" s="0"/>
+      <c r="LW1" s="0"/>
+      <c r="LX1" s="0"/>
+      <c r="LY1" s="0"/>
+      <c r="LZ1" s="0"/>
+      <c r="MA1" s="0"/>
+      <c r="MB1" s="0"/>
+      <c r="MC1" s="0"/>
+      <c r="MD1" s="0"/>
+      <c r="ME1" s="0"/>
+      <c r="MF1" s="0"/>
+      <c r="MG1" s="0"/>
+      <c r="MH1" s="0"/>
+      <c r="MI1" s="0"/>
+      <c r="MJ1" s="0"/>
+      <c r="MK1" s="0"/>
+      <c r="ML1" s="0"/>
+      <c r="MM1" s="0"/>
+      <c r="MN1" s="0"/>
+      <c r="MO1" s="0"/>
+      <c r="MP1" s="0"/>
+      <c r="MQ1" s="0"/>
+      <c r="MR1" s="0"/>
+      <c r="MS1" s="0"/>
+      <c r="MT1" s="0"/>
+      <c r="MU1" s="0"/>
+      <c r="MV1" s="0"/>
+      <c r="MW1" s="0"/>
+      <c r="MX1" s="0"/>
+      <c r="MY1" s="0"/>
+      <c r="MZ1" s="0"/>
+      <c r="NA1" s="0"/>
+      <c r="NB1" s="0"/>
+      <c r="NC1" s="0"/>
+      <c r="ND1" s="0"/>
+      <c r="NE1" s="0"/>
+      <c r="NF1" s="0"/>
+      <c r="NG1" s="0"/>
+      <c r="NH1" s="0"/>
+      <c r="NI1" s="0"/>
+      <c r="NJ1" s="0"/>
+      <c r="NK1" s="0"/>
+      <c r="NL1" s="0"/>
+      <c r="NM1" s="0"/>
+      <c r="NN1" s="0"/>
+      <c r="NO1" s="0"/>
+      <c r="NP1" s="0"/>
+      <c r="NQ1" s="0"/>
+      <c r="NR1" s="0"/>
+      <c r="NS1" s="0"/>
+      <c r="NT1" s="0"/>
+      <c r="NU1" s="0"/>
+      <c r="NV1" s="0"/>
+      <c r="NW1" s="0"/>
+      <c r="NX1" s="0"/>
+      <c r="NY1" s="0"/>
+      <c r="NZ1" s="0"/>
+      <c r="OA1" s="0"/>
+      <c r="OB1" s="0"/>
+      <c r="OC1" s="0"/>
+      <c r="OD1" s="0"/>
+      <c r="OE1" s="0"/>
+      <c r="OF1" s="0"/>
+      <c r="OG1" s="0"/>
+      <c r="OH1" s="0"/>
+      <c r="OI1" s="0"/>
+      <c r="OJ1" s="0"/>
+      <c r="OK1" s="0"/>
+      <c r="OL1" s="0"/>
+      <c r="OM1" s="0"/>
+      <c r="ON1" s="0"/>
+      <c r="OO1" s="0"/>
+      <c r="OP1" s="0"/>
+      <c r="OQ1" s="0"/>
+      <c r="OR1" s="0"/>
+      <c r="OS1" s="0"/>
+      <c r="OT1" s="0"/>
+      <c r="OU1" s="0"/>
+      <c r="OV1" s="0"/>
+      <c r="OW1" s="0"/>
+      <c r="OX1" s="0"/>
+      <c r="OY1" s="0"/>
+      <c r="OZ1" s="0"/>
+      <c r="PA1" s="0"/>
+      <c r="PB1" s="0"/>
+      <c r="PC1" s="0"/>
+      <c r="PD1" s="0"/>
+      <c r="PE1" s="0"/>
+      <c r="PF1" s="0"/>
+      <c r="PG1" s="0"/>
+      <c r="PH1" s="0"/>
+      <c r="PI1" s="0"/>
+      <c r="PJ1" s="0"/>
+      <c r="PK1" s="0"/>
+      <c r="PL1" s="0"/>
+      <c r="PM1" s="0"/>
+      <c r="PN1" s="0"/>
+      <c r="PO1" s="0"/>
+      <c r="PP1" s="0"/>
+      <c r="PQ1" s="0"/>
+      <c r="PR1" s="0"/>
+      <c r="PS1" s="0"/>
+      <c r="PT1" s="0"/>
+      <c r="PU1" s="0"/>
+      <c r="PV1" s="0"/>
+      <c r="PW1" s="0"/>
+      <c r="PX1" s="0"/>
+      <c r="PY1" s="0"/>
+      <c r="PZ1" s="0"/>
+      <c r="QA1" s="0"/>
+      <c r="QB1" s="0"/>
+      <c r="QC1" s="0"/>
+      <c r="QD1" s="0"/>
+      <c r="QE1" s="0"/>
+      <c r="QF1" s="0"/>
+      <c r="QG1" s="0"/>
+      <c r="QH1" s="0"/>
+      <c r="QI1" s="0"/>
+      <c r="QJ1" s="0"/>
+      <c r="QK1" s="0"/>
+      <c r="QL1" s="0"/>
+      <c r="QM1" s="0"/>
+      <c r="QN1" s="0"/>
+      <c r="QO1" s="0"/>
+      <c r="QP1" s="0"/>
+      <c r="QQ1" s="0"/>
+      <c r="QR1" s="0"/>
+      <c r="QS1" s="0"/>
+      <c r="QT1" s="0"/>
+      <c r="QU1" s="0"/>
+      <c r="QV1" s="0"/>
+      <c r="QW1" s="0"/>
+      <c r="QX1" s="0"/>
+      <c r="QY1" s="0"/>
+      <c r="QZ1" s="0"/>
+      <c r="RA1" s="0"/>
+      <c r="RB1" s="0"/>
+      <c r="RC1" s="0"/>
+      <c r="RD1" s="0"/>
+      <c r="RE1" s="0"/>
+      <c r="RF1" s="0"/>
+      <c r="RG1" s="0"/>
+      <c r="RH1" s="0"/>
+      <c r="RI1" s="0"/>
+      <c r="RJ1" s="0"/>
+      <c r="RK1" s="0"/>
+      <c r="RL1" s="0"/>
+      <c r="RM1" s="0"/>
+      <c r="RN1" s="0"/>
+      <c r="RO1" s="0"/>
+      <c r="RP1" s="0"/>
+      <c r="RQ1" s="0"/>
+      <c r="RR1" s="0"/>
+      <c r="RS1" s="0"/>
+      <c r="RT1" s="0"/>
+      <c r="RU1" s="0"/>
+      <c r="RV1" s="0"/>
+      <c r="RW1" s="0"/>
+      <c r="RX1" s="0"/>
+      <c r="RY1" s="0"/>
+      <c r="RZ1" s="0"/>
+      <c r="SA1" s="0"/>
+      <c r="SB1" s="0"/>
+      <c r="SC1" s="0"/>
+      <c r="SD1" s="0"/>
+      <c r="SE1" s="0"/>
+      <c r="SF1" s="0"/>
+      <c r="SG1" s="0"/>
+      <c r="SH1" s="0"/>
+      <c r="SI1" s="0"/>
+      <c r="SJ1" s="0"/>
+      <c r="SK1" s="0"/>
+      <c r="SL1" s="0"/>
+      <c r="SM1" s="0"/>
+      <c r="SN1" s="0"/>
+      <c r="SO1" s="0"/>
+      <c r="SP1" s="0"/>
+      <c r="SQ1" s="0"/>
+      <c r="SR1" s="0"/>
+      <c r="SS1" s="0"/>
+      <c r="ST1" s="0"/>
+      <c r="SU1" s="0"/>
+      <c r="SV1" s="0"/>
+      <c r="SW1" s="0"/>
+      <c r="SX1" s="0"/>
+      <c r="SY1" s="0"/>
+      <c r="SZ1" s="0"/>
+      <c r="TA1" s="0"/>
+      <c r="TB1" s="0"/>
+      <c r="TC1" s="0"/>
+      <c r="TD1" s="0"/>
+      <c r="TE1" s="0"/>
+      <c r="TF1" s="0"/>
+      <c r="TG1" s="0"/>
+      <c r="TH1" s="0"/>
+      <c r="TI1" s="0"/>
+      <c r="TJ1" s="0"/>
+      <c r="TK1" s="0"/>
+      <c r="TL1" s="0"/>
+      <c r="TM1" s="0"/>
+      <c r="TN1" s="0"/>
+      <c r="TO1" s="0"/>
+      <c r="TP1" s="0"/>
+      <c r="TQ1" s="0"/>
+      <c r="TR1" s="0"/>
+      <c r="TS1" s="0"/>
+      <c r="TT1" s="0"/>
+      <c r="TU1" s="0"/>
+      <c r="TV1" s="0"/>
+      <c r="TW1" s="0"/>
+      <c r="TX1" s="0"/>
+      <c r="TY1" s="0"/>
+      <c r="TZ1" s="0"/>
+      <c r="UA1" s="0"/>
+      <c r="UB1" s="0"/>
+      <c r="UC1" s="0"/>
+      <c r="UD1" s="0"/>
+      <c r="UE1" s="0"/>
+      <c r="UF1" s="0"/>
+      <c r="UG1" s="0"/>
+      <c r="UH1" s="0"/>
+      <c r="UI1" s="0"/>
+      <c r="UJ1" s="0"/>
+      <c r="UK1" s="0"/>
+      <c r="UL1" s="0"/>
+      <c r="UM1" s="0"/>
+      <c r="UN1" s="0"/>
+      <c r="UO1" s="0"/>
+      <c r="UP1" s="0"/>
+      <c r="UQ1" s="0"/>
+      <c r="UR1" s="0"/>
+      <c r="US1" s="0"/>
+      <c r="UT1" s="0"/>
+      <c r="UU1" s="0"/>
+      <c r="UV1" s="0"/>
+      <c r="UW1" s="0"/>
+      <c r="UX1" s="0"/>
+      <c r="UY1" s="0"/>
+      <c r="UZ1" s="0"/>
+      <c r="VA1" s="0"/>
+      <c r="VB1" s="0"/>
+      <c r="VC1" s="0"/>
+      <c r="VD1" s="0"/>
+      <c r="VE1" s="0"/>
+      <c r="VF1" s="0"/>
+      <c r="VG1" s="0"/>
+      <c r="VH1" s="0"/>
+      <c r="VI1" s="0"/>
+      <c r="VJ1" s="0"/>
+      <c r="VK1" s="0"/>
+      <c r="VL1" s="0"/>
+      <c r="VM1" s="0"/>
+      <c r="VN1" s="0"/>
+      <c r="VO1" s="0"/>
+      <c r="VP1" s="0"/>
+      <c r="VQ1" s="0"/>
+      <c r="VR1" s="0"/>
+      <c r="VS1" s="0"/>
+      <c r="VT1" s="0"/>
+      <c r="VU1" s="0"/>
+      <c r="VV1" s="0"/>
+      <c r="VW1" s="0"/>
+      <c r="VX1" s="0"/>
+      <c r="VY1" s="0"/>
+      <c r="VZ1" s="0"/>
+      <c r="WA1" s="0"/>
+      <c r="WB1" s="0"/>
+      <c r="WC1" s="0"/>
+      <c r="WD1" s="0"/>
+      <c r="WE1" s="0"/>
+      <c r="WF1" s="0"/>
+      <c r="WG1" s="0"/>
+      <c r="WH1" s="0"/>
+      <c r="WI1" s="0"/>
+      <c r="WJ1" s="0"/>
+      <c r="WK1" s="0"/>
+      <c r="WL1" s="0"/>
+      <c r="WM1" s="0"/>
+      <c r="WN1" s="0"/>
+      <c r="WO1" s="0"/>
+      <c r="WP1" s="0"/>
+      <c r="WQ1" s="0"/>
+      <c r="WR1" s="0"/>
+      <c r="WS1" s="0"/>
+      <c r="WT1" s="0"/>
+      <c r="WU1" s="0"/>
+      <c r="WV1" s="0"/>
+      <c r="WW1" s="0"/>
+      <c r="WX1" s="0"/>
+      <c r="WY1" s="0"/>
+      <c r="WZ1" s="0"/>
+      <c r="XA1" s="0"/>
+      <c r="XB1" s="0"/>
+      <c r="XC1" s="0"/>
+      <c r="XD1" s="0"/>
+      <c r="XE1" s="0"/>
+      <c r="XF1" s="0"/>
+      <c r="XG1" s="0"/>
+      <c r="XH1" s="0"/>
+      <c r="XI1" s="0"/>
+      <c r="XJ1" s="0"/>
+      <c r="XK1" s="0"/>
+      <c r="XL1" s="0"/>
+      <c r="XM1" s="0"/>
+      <c r="XN1" s="0"/>
+      <c r="XO1" s="0"/>
+      <c r="XP1" s="0"/>
+      <c r="XQ1" s="0"/>
+      <c r="XR1" s="0"/>
+      <c r="XS1" s="0"/>
+      <c r="XT1" s="0"/>
+      <c r="XU1" s="0"/>
+      <c r="XV1" s="0"/>
+      <c r="XW1" s="0"/>
+      <c r="XX1" s="0"/>
+      <c r="XY1" s="0"/>
+      <c r="XZ1" s="0"/>
+      <c r="YA1" s="0"/>
+      <c r="YB1" s="0"/>
+      <c r="YC1" s="0"/>
+      <c r="YD1" s="0"/>
+      <c r="YE1" s="0"/>
+      <c r="YF1" s="0"/>
+      <c r="YG1" s="0"/>
+      <c r="YH1" s="0"/>
+      <c r="YI1" s="0"/>
+      <c r="YJ1" s="0"/>
+      <c r="YK1" s="0"/>
+      <c r="YL1" s="0"/>
+      <c r="YM1" s="0"/>
+      <c r="YN1" s="0"/>
+      <c r="YO1" s="0"/>
+      <c r="YP1" s="0"/>
+      <c r="YQ1" s="0"/>
+      <c r="YR1" s="0"/>
+      <c r="YS1" s="0"/>
+      <c r="YT1" s="0"/>
+      <c r="YU1" s="0"/>
+      <c r="YV1" s="0"/>
+      <c r="YW1" s="0"/>
+      <c r="YX1" s="0"/>
+      <c r="YY1" s="0"/>
+      <c r="YZ1" s="0"/>
+      <c r="ZA1" s="0"/>
+      <c r="ZB1" s="0"/>
+      <c r="ZC1" s="0"/>
+      <c r="ZD1" s="0"/>
+      <c r="ZE1" s="0"/>
+      <c r="ZF1" s="0"/>
+      <c r="ZG1" s="0"/>
+      <c r="ZH1" s="0"/>
+      <c r="ZI1" s="0"/>
+      <c r="ZJ1" s="0"/>
+      <c r="ZK1" s="0"/>
+      <c r="ZL1" s="0"/>
+      <c r="ZM1" s="0"/>
+      <c r="ZN1" s="0"/>
+      <c r="ZO1" s="0"/>
+      <c r="ZP1" s="0"/>
+      <c r="ZQ1" s="0"/>
+      <c r="ZR1" s="0"/>
+      <c r="ZS1" s="0"/>
+      <c r="ZT1" s="0"/>
+      <c r="ZU1" s="0"/>
+      <c r="ZV1" s="0"/>
+      <c r="ZW1" s="0"/>
+      <c r="ZX1" s="0"/>
+      <c r="ZY1" s="0"/>
+      <c r="ZZ1" s="0"/>
+      <c r="AAA1" s="0"/>
+      <c r="AAB1" s="0"/>
+      <c r="AAC1" s="0"/>
+      <c r="AAD1" s="0"/>
+      <c r="AAE1" s="0"/>
+      <c r="AAF1" s="0"/>
+      <c r="AAG1" s="0"/>
+      <c r="AAH1" s="0"/>
+      <c r="AAI1" s="0"/>
+      <c r="AAJ1" s="0"/>
+      <c r="AAK1" s="0"/>
+      <c r="AAL1" s="0"/>
+      <c r="AAM1" s="0"/>
+      <c r="AAN1" s="0"/>
+      <c r="AAO1" s="0"/>
+      <c r="AAP1" s="0"/>
+      <c r="AAQ1" s="0"/>
+      <c r="AAR1" s="0"/>
+      <c r="AAS1" s="0"/>
+      <c r="AAT1" s="0"/>
+      <c r="AAU1" s="0"/>
+      <c r="AAV1" s="0"/>
+      <c r="AAW1" s="0"/>
+      <c r="AAX1" s="0"/>
+      <c r="AAY1" s="0"/>
+      <c r="AAZ1" s="0"/>
+      <c r="ABA1" s="0"/>
+      <c r="ABB1" s="0"/>
+      <c r="ABC1" s="0"/>
+      <c r="ABD1" s="0"/>
+      <c r="ABE1" s="0"/>
+      <c r="ABF1" s="0"/>
+      <c r="ABG1" s="0"/>
+      <c r="ABH1" s="0"/>
+      <c r="ABI1" s="0"/>
+      <c r="ABJ1" s="0"/>
+      <c r="ABK1" s="0"/>
+      <c r="ABL1" s="0"/>
+      <c r="ABM1" s="0"/>
+      <c r="ABN1" s="0"/>
+      <c r="ABO1" s="0"/>
+      <c r="ABP1" s="0"/>
+      <c r="ABQ1" s="0"/>
+      <c r="ABR1" s="0"/>
+      <c r="ABS1" s="0"/>
+      <c r="ABT1" s="0"/>
+      <c r="ABU1" s="0"/>
+      <c r="ABV1" s="0"/>
+      <c r="ABW1" s="0"/>
+      <c r="ABX1" s="0"/>
+      <c r="ABY1" s="0"/>
+      <c r="ABZ1" s="0"/>
+      <c r="ACA1" s="0"/>
+      <c r="ACB1" s="0"/>
+      <c r="ACC1" s="0"/>
+      <c r="ACD1" s="0"/>
+      <c r="ACE1" s="0"/>
+      <c r="ACF1" s="0"/>
+      <c r="ACG1" s="0"/>
+      <c r="ACH1" s="0"/>
+      <c r="ACI1" s="0"/>
+      <c r="ACJ1" s="0"/>
+      <c r="ACK1" s="0"/>
+      <c r="ACL1" s="0"/>
+      <c r="ACM1" s="0"/>
+      <c r="ACN1" s="0"/>
+      <c r="ACO1" s="0"/>
+      <c r="ACP1" s="0"/>
+      <c r="ACQ1" s="0"/>
+      <c r="ACR1" s="0"/>
+      <c r="ACS1" s="0"/>
+      <c r="ACT1" s="0"/>
+      <c r="ACU1" s="0"/>
+      <c r="ACV1" s="0"/>
+      <c r="ACW1" s="0"/>
+      <c r="ACX1" s="0"/>
+      <c r="ACY1" s="0"/>
+      <c r="ACZ1" s="0"/>
+      <c r="ADA1" s="0"/>
+      <c r="ADB1" s="0"/>
+      <c r="ADC1" s="0"/>
+      <c r="ADD1" s="0"/>
+      <c r="ADE1" s="0"/>
+      <c r="ADF1" s="0"/>
+      <c r="ADG1" s="0"/>
+      <c r="ADH1" s="0"/>
+      <c r="ADI1" s="0"/>
+      <c r="ADJ1" s="0"/>
+      <c r="ADK1" s="0"/>
+      <c r="ADL1" s="0"/>
+      <c r="ADM1" s="0"/>
+      <c r="ADN1" s="0"/>
+      <c r="ADO1" s="0"/>
+      <c r="ADP1" s="0"/>
+      <c r="ADQ1" s="0"/>
+      <c r="ADR1" s="0"/>
+      <c r="ADS1" s="0"/>
+      <c r="ADT1" s="0"/>
+      <c r="ADU1" s="0"/>
+      <c r="ADV1" s="0"/>
+      <c r="ADW1" s="0"/>
+      <c r="ADX1" s="0"/>
+      <c r="ADY1" s="0"/>
+      <c r="ADZ1" s="0"/>
+      <c r="AEA1" s="0"/>
+      <c r="AEB1" s="0"/>
+      <c r="AEC1" s="0"/>
+      <c r="AED1" s="0"/>
+      <c r="AEE1" s="0"/>
+      <c r="AEF1" s="0"/>
+      <c r="AEG1" s="0"/>
+      <c r="AEH1" s="0"/>
+      <c r="AEI1" s="0"/>
+      <c r="AEJ1" s="0"/>
+      <c r="AEK1" s="0"/>
+      <c r="AEL1" s="0"/>
+      <c r="AEM1" s="0"/>
+      <c r="AEN1" s="0"/>
+      <c r="AEO1" s="0"/>
+      <c r="AEP1" s="0"/>
+      <c r="AEQ1" s="0"/>
+      <c r="AER1" s="0"/>
+      <c r="AES1" s="0"/>
+      <c r="AET1" s="0"/>
+      <c r="AEU1" s="0"/>
+      <c r="AEV1" s="0"/>
+      <c r="AEW1" s="0"/>
+      <c r="AEX1" s="0"/>
+      <c r="AEY1" s="0"/>
+      <c r="AEZ1" s="0"/>
+      <c r="AFA1" s="0"/>
+      <c r="AFB1" s="0"/>
+      <c r="AFC1" s="0"/>
+      <c r="AFD1" s="0"/>
+      <c r="AFE1" s="0"/>
+      <c r="AFF1" s="0"/>
+      <c r="AFG1" s="0"/>
+      <c r="AFH1" s="0"/>
+      <c r="AFI1" s="0"/>
+      <c r="AFJ1" s="0"/>
+      <c r="AFK1" s="0"/>
+      <c r="AFL1" s="0"/>
+      <c r="AFM1" s="0"/>
+      <c r="AFN1" s="0"/>
+      <c r="AFO1" s="0"/>
+      <c r="AFP1" s="0"/>
+      <c r="AFQ1" s="0"/>
+      <c r="AFR1" s="0"/>
+      <c r="AFS1" s="0"/>
+      <c r="AFT1" s="0"/>
+      <c r="AFU1" s="0"/>
+      <c r="AFV1" s="0"/>
+      <c r="AFW1" s="0"/>
+      <c r="AFX1" s="0"/>
+      <c r="AFY1" s="0"/>
+      <c r="AFZ1" s="0"/>
+      <c r="AGA1" s="0"/>
+      <c r="AGB1" s="0"/>
+      <c r="AGC1" s="0"/>
+      <c r="AGD1" s="0"/>
+      <c r="AGE1" s="0"/>
+      <c r="AGF1" s="0"/>
+      <c r="AGG1" s="0"/>
+      <c r="AGH1" s="0"/>
+      <c r="AGI1" s="0"/>
+      <c r="AGJ1" s="0"/>
+      <c r="AGK1" s="0"/>
+      <c r="AGL1" s="0"/>
+      <c r="AGM1" s="0"/>
+      <c r="AGN1" s="0"/>
+      <c r="AGO1" s="0"/>
+      <c r="AGP1" s="0"/>
+      <c r="AGQ1" s="0"/>
+      <c r="AGR1" s="0"/>
+      <c r="AGS1" s="0"/>
+      <c r="AGT1" s="0"/>
+      <c r="AGU1" s="0"/>
+      <c r="AGV1" s="0"/>
+      <c r="AGW1" s="0"/>
+      <c r="AGX1" s="0"/>
+      <c r="AGY1" s="0"/>
+      <c r="AGZ1" s="0"/>
+      <c r="AHA1" s="0"/>
+      <c r="AHB1" s="0"/>
+      <c r="AHC1" s="0"/>
+      <c r="AHD1" s="0"/>
+      <c r="AHE1" s="0"/>
+      <c r="AHF1" s="0"/>
+      <c r="AHG1" s="0"/>
+      <c r="AHH1" s="0"/>
+      <c r="AHI1" s="0"/>
+      <c r="AHJ1" s="0"/>
+      <c r="AHK1" s="0"/>
+      <c r="AHL1" s="0"/>
+      <c r="AHM1" s="0"/>
+      <c r="AHN1" s="0"/>
+      <c r="AHO1" s="0"/>
+      <c r="AHP1" s="0"/>
+      <c r="AHQ1" s="0"/>
+      <c r="AHR1" s="0"/>
+      <c r="AHS1" s="0"/>
+      <c r="AHT1" s="0"/>
+      <c r="AHU1" s="0"/>
+      <c r="AHV1" s="0"/>
+      <c r="AHW1" s="0"/>
+      <c r="AHX1" s="0"/>
+      <c r="AHY1" s="0"/>
+      <c r="AHZ1" s="0"/>
+      <c r="AIA1" s="0"/>
+      <c r="AIB1" s="0"/>
+      <c r="AIC1" s="0"/>
+      <c r="AID1" s="0"/>
+      <c r="AIE1" s="0"/>
+      <c r="AIF1" s="0"/>
+      <c r="AIG1" s="0"/>
+      <c r="AIH1" s="0"/>
+      <c r="AII1" s="0"/>
+      <c r="AIJ1" s="0"/>
+      <c r="AIK1" s="0"/>
+      <c r="AIL1" s="0"/>
+      <c r="AIM1" s="0"/>
+      <c r="AIN1" s="0"/>
+      <c r="AIO1" s="0"/>
+      <c r="AIP1" s="0"/>
+      <c r="AIQ1" s="0"/>
+      <c r="AIR1" s="0"/>
+      <c r="AIS1" s="0"/>
+      <c r="AIT1" s="0"/>
+      <c r="AIU1" s="0"/>
+      <c r="AIV1" s="0"/>
+      <c r="AIW1" s="0"/>
+      <c r="AIX1" s="0"/>
+      <c r="AIY1" s="0"/>
+      <c r="AIZ1" s="0"/>
+      <c r="AJA1" s="0"/>
+      <c r="AJB1" s="0"/>
+      <c r="AJC1" s="0"/>
+      <c r="AJD1" s="0"/>
+      <c r="AJE1" s="0"/>
+      <c r="AJF1" s="0"/>
+      <c r="AJG1" s="0"/>
+      <c r="AJH1" s="0"/>
+      <c r="AJI1" s="0"/>
+      <c r="AJJ1" s="0"/>
+      <c r="AJK1" s="0"/>
+      <c r="AJL1" s="0"/>
+      <c r="AJM1" s="0"/>
+      <c r="AJN1" s="0"/>
+      <c r="AJO1" s="0"/>
+      <c r="AJP1" s="0"/>
+      <c r="AJQ1" s="0"/>
+      <c r="AJR1" s="0"/>
+      <c r="AJS1" s="0"/>
+      <c r="AJT1" s="0"/>
+      <c r="AJU1" s="0"/>
+      <c r="AJV1" s="0"/>
+      <c r="AJW1" s="0"/>
+      <c r="AJX1" s="0"/>
+      <c r="AJY1" s="0"/>
+      <c r="AJZ1" s="0"/>
+      <c r="AKA1" s="0"/>
+      <c r="AKB1" s="0"/>
+      <c r="AKC1" s="0"/>
+      <c r="AKD1" s="0"/>
+      <c r="AKE1" s="0"/>
+      <c r="AKF1" s="0"/>
+      <c r="AKG1" s="0"/>
+      <c r="AKH1" s="0"/>
+      <c r="AKI1" s="0"/>
+      <c r="AKJ1" s="0"/>
+      <c r="AKK1" s="0"/>
+      <c r="AKL1" s="0"/>
+      <c r="AKM1" s="0"/>
+      <c r="AKN1" s="0"/>
+      <c r="AKO1" s="0"/>
+      <c r="AKP1" s="0"/>
+      <c r="AKQ1" s="0"/>
+      <c r="AKR1" s="0"/>
+      <c r="AKS1" s="0"/>
+      <c r="AKT1" s="0"/>
+      <c r="AKU1" s="0"/>
+      <c r="AKV1" s="0"/>
+      <c r="AKW1" s="0"/>
+      <c r="AKX1" s="0"/>
+      <c r="AKY1" s="0"/>
+      <c r="AKZ1" s="0"/>
+      <c r="ALA1" s="0"/>
+      <c r="ALB1" s="0"/>
+      <c r="ALC1" s="0"/>
+      <c r="ALD1" s="0"/>
+      <c r="ALE1" s="0"/>
+      <c r="ALF1" s="0"/>
+      <c r="ALG1" s="0"/>
+      <c r="ALH1" s="0"/>
+      <c r="ALI1" s="0"/>
+      <c r="ALJ1" s="0"/>
+      <c r="ALK1" s="0"/>
+      <c r="ALL1" s="0"/>
+      <c r="ALM1" s="0"/>
+      <c r="ALN1" s="0"/>
+      <c r="ALO1" s="0"/>
+      <c r="ALP1" s="0"/>
+      <c r="ALQ1" s="0"/>
+      <c r="ALR1" s="0"/>
+      <c r="ALS1" s="0"/>
+      <c r="ALT1" s="0"/>
+      <c r="ALU1" s="0"/>
+      <c r="ALV1" s="0"/>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
@@ -33271,10 +34255,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="A2:AW42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -33321,9 +34305,15 @@
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="40" t="n">
@@ -33332,75 +34322,117 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="C4" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>410</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="40" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="C5" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="41" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="40" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="C6" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="41" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="40" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="C7" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="41" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="40" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="C8" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="40" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="C9" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="41" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="40" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
+      <c r="C10" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="41" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="40" t="n">
@@ -33409,9 +34441,16 @@
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
+      <c r="C11" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F11" s="42"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="40" t="n">
@@ -33420,42 +34459,66 @@
       <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
+      <c r="C12" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>410</v>
+      </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="40" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="C13" s="41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D13" s="41" t="n">
+        <v>9</v>
+      </c>
+      <c r="E13" s="41" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="40" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="C14" s="41" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="41" t="n">
+        <v>19</v>
+      </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="40" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
+      <c r="C15" s="41" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" s="41" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="40" t="n">
@@ -33464,9 +34527,15 @@
       <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
+      <c r="C16" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="40" t="n">
@@ -33475,31 +34544,49 @@
       <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
+      <c r="C17" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>410</v>
+      </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="40" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="C18" s="41" t="n">
+        <v>23</v>
+      </c>
+      <c r="D18" s="41" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" s="41" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="40" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="C19" s="41" t="n">
+        <v>34</v>
+      </c>
+      <c r="D19" s="41" t="n">
+        <v>16</v>
+      </c>
+      <c r="E19" s="41" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="40" t="n">
@@ -33508,20 +34595,32 @@
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
+      <c r="C20" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>410</v>
+      </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="40" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
+      <c r="C21" s="41" t="n">
+        <v>17</v>
+      </c>
+      <c r="D21" s="41" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" s="41" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="40" t="n">
@@ -33530,31 +34629,49 @@
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="C22" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>410</v>
+      </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="40" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
+      <c r="C23" s="41" t="n">
+        <v>45</v>
+      </c>
+      <c r="D23" s="41" t="n">
+        <v>19</v>
+      </c>
+      <c r="E23" s="41" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="40" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
+      <c r="C24" s="41" t="n">
+        <v>69</v>
+      </c>
+      <c r="D24" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="E24" s="41" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="40" t="n">
@@ -33563,20 +34680,32 @@
       <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
+      <c r="C25" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>410</v>
+      </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="40" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
+      <c r="C26" s="41" t="n">
+        <v>18</v>
+      </c>
+      <c r="D26" s="41" t="n">
+        <v>14</v>
+      </c>
+      <c r="E26" s="41" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="40" t="n">
@@ -33585,42 +34714,67 @@
       <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="C27" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F27" s="42"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="40" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
+      <c r="C28" s="41" t="n">
+        <v>51</v>
+      </c>
+      <c r="D28" s="41" t="n">
+        <v>36</v>
+      </c>
+      <c r="E28" s="41" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="40" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
+      <c r="C29" s="41" t="n">
+        <v>76</v>
+      </c>
+      <c r="D29" s="41" t="n">
+        <v>41</v>
+      </c>
+      <c r="E29" s="41" t="n">
+        <v>61</v>
+      </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="40" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
+      <c r="C30" s="41" t="n">
+        <v>32</v>
+      </c>
+      <c r="D30" s="41" t="n">
+        <v>42</v>
+      </c>
+      <c r="E30" s="41" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="40" t="n">
@@ -33629,9 +34783,16 @@
       <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
+      <c r="C31" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F31" s="42"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="40" t="n">
@@ -33640,9 +34801,16 @@
       <c r="B32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
+      <c r="C32" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="40" t="n">
@@ -33651,31 +34819,49 @@
       <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
+      <c r="C33" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>410</v>
+      </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="40" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
+      <c r="C34" s="41" t="n">
+        <v>89</v>
+      </c>
+      <c r="D34" s="41" t="n">
+        <v>66</v>
+      </c>
+      <c r="E34" s="41" t="n">
+        <v>44</v>
+      </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="40" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
+      <c r="C35" s="41" t="n">
+        <v>83</v>
+      </c>
+      <c r="D35" s="41" t="n">
+        <v>53</v>
+      </c>
+      <c r="E35" s="41" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="40" t="n">
@@ -33684,31 +34870,49 @@
       <c r="B36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
+      <c r="C36" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>410</v>
+      </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="40" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
+      <c r="C37" s="41" t="n">
+        <v>45</v>
+      </c>
+      <c r="D37" s="41" t="n">
+        <v>41</v>
+      </c>
+      <c r="E37" s="41" t="n">
+        <v>55</v>
+      </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="40" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
+      <c r="C38" s="41" t="n">
+        <v>112</v>
+      </c>
+      <c r="D38" s="41" t="n">
+        <v>79</v>
+      </c>
+      <c r="E38" s="41" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="40" t="n">
@@ -33717,20 +34921,32 @@
       <c r="B39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
+      <c r="C39" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>410</v>
+      </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="40" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
+      <c r="C40" s="41" t="n">
+        <v>123</v>
+      </c>
+      <c r="D40" s="41" t="n">
+        <v>85</v>
+      </c>
+      <c r="E40" s="41" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="40" t="n">
@@ -33739,20 +34955,33 @@
       <c r="B41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
+      <c r="C41" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F41" s="42"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="40" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
+      <c r="C42" s="41" t="n">
+        <v>87</v>
+      </c>
+      <c r="D42" s="41" t="n">
+        <v>87</v>
+      </c>
+      <c r="E42" s="41" t="n">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -33773,14 +35002,14 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="A2:AW42"/>
+      <selection pane="topLeft" activeCell="J33" activeCellId="1" sqref="C41:E41 J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="14.7244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="42" width="16.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="42" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="16.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="44" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33810,19 +35039,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33832,11 +35061,11 @@
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="40" t="n">
@@ -33845,11 +35074,11 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="40" t="n">
@@ -33858,11 +35087,11 @@
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="40" t="n">
@@ -33871,11 +35100,11 @@
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="40" t="n">
@@ -33884,11 +35113,11 @@
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="40" t="n">
@@ -33897,11 +35126,11 @@
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="40" t="n">
@@ -33910,11 +35139,11 @@
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="40" t="n">
@@ -33923,11 +35152,11 @@
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="40" t="n">
@@ -33936,11 +35165,11 @@
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="40" t="n">
@@ -33949,11 +35178,11 @@
       <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="40" t="n">
@@ -33962,11 +35191,11 @@
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="40" t="n">
@@ -33975,11 +35204,11 @@
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="40" t="n">
@@ -33988,11 +35217,11 @@
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="40" t="n">
@@ -34001,11 +35230,11 @@
       <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="40" t="n">
@@ -34014,11 +35243,11 @@
       <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="40" t="n">
@@ -34027,11 +35256,11 @@
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="40" t="n">
@@ -34040,11 +35269,11 @@
       <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="40" t="n">
@@ -34053,11 +35282,11 @@
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="40" t="n">
@@ -34066,11 +35295,11 @@
       <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="40" t="n">
@@ -34079,11 +35308,11 @@
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="40" t="n">
@@ -34092,11 +35321,11 @@
       <c r="B23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="40" t="n">
@@ -34105,11 +35334,11 @@
       <c r="B24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="40" t="n">
@@ -34118,11 +35347,11 @@
       <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="40" t="n">
@@ -34131,11 +35360,11 @@
       <c r="B26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="40" t="n">
@@ -34144,11 +35373,11 @@
       <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="40" t="n">
@@ -34157,11 +35386,11 @@
       <c r="B28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="40" t="n">
@@ -34170,11 +35399,11 @@
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="40" t="n">
@@ -34183,11 +35412,11 @@
       <c r="B30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="40" t="n">
@@ -34196,11 +35425,11 @@
       <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="40" t="n">
@@ -34209,11 +35438,11 @@
       <c r="B32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="40" t="n">
@@ -34222,11 +35451,11 @@
       <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="40" t="n">
@@ -34235,11 +35464,11 @@
       <c r="B34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="40" t="n">
@@ -34248,11 +35477,11 @@
       <c r="B35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="40" t="n">
@@ -34261,11 +35490,11 @@
       <c r="B36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="40" t="n">
@@ -34274,11 +35503,11 @@
       <c r="B37" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="40" t="n">
@@ -34287,11 +35516,11 @@
       <c r="B38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="40" t="n">
@@ -34300,11 +35529,11 @@
       <c r="B39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="40" t="n">
@@ -34313,11 +35542,11 @@
       <c r="B40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="40" t="n">
@@ -34326,11 +35555,11 @@
       <c r="B41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="40" t="n">
@@ -34339,11 +35568,11 @@
       <c r="B42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="802" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="536" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="421">
   <si>
     <t>[h]</t>
   </si>
@@ -282,6 +282,12 @@
     <t>[fraction collagen]</t>
   </si>
   <si>
+    <t>[fraction bile infarcts]</t>
+  </si>
+  <si>
+    <t>[%] !</t>
+  </si>
+  <si>
     <t>sid_GLDH</t>
   </si>
   <si>
@@ -363,6 +369,15 @@
     <t>BrdU_SiriusRed</t>
   </si>
   <si>
+    <t>sid_bileInfarcts</t>
+  </si>
+  <si>
+    <t>pid_bileInfarcts</t>
+  </si>
+  <si>
+    <t>bileInfarcts</t>
+  </si>
+  <si>
     <t>0.93</t>
   </si>
   <si>
@@ -1242,19 +1257,19 @@
     <t>Act B</t>
   </si>
   <si>
+    <t>alpha-SMA</t>
+  </si>
+  <si>
+    <t>CTGF</t>
+  </si>
+  <si>
+    <t>S100A4</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>[?]</t>
-  </si>
-  <si>
-    <t>alpha-SMA</t>
-  </si>
-  <si>
-    <t>CTGF</t>
-  </si>
-  <si>
-    <t>S100A4</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>erythrocytes</t>
@@ -1396,7 +1411,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1454,19 +1469,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1483,6 +1498,10 @@
     </xf>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1689,7 +1708,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C41:E41 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2549,10 +2568,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB42" activeCellId="1" sqref="C41:E41 AB42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE45" activeCellId="0" sqref="AE45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2581,137 +2600,156 @@
     <col collapsed="false" hidden="false" max="25" min="25" style="12" width="16.9438775510204"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="12" width="18.3418367346939"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="12" width="16.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="12" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="12" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="12" width="15.8367346938776"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="12" width="14.030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="31" style="12" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="16" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15" t="s">
+      <c r="S1" s="15"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15" t="s">
+      <c r="V1" s="15"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15" t="s">
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14" t="s">
         <v>85</v>
       </c>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="17" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="15" t="s">
         <v>88</v>
       </c>
+      <c r="B2" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="D2" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="15" t="s">
         <v>91</v>
       </c>
+      <c r="E2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="G2" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="15" t="s">
         <v>94</v>
       </c>
+      <c r="H2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="J2" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="L2" s="15" t="s">
         <v>97</v>
       </c>
+      <c r="K2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="M2" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="O2" s="15" t="s">
         <v>100</v>
       </c>
+      <c r="N2" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="P2" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="R2" s="15" t="s">
         <v>103</v>
       </c>
+      <c r="Q2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="S2" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="U2" s="15" t="s">
         <v>106</v>
       </c>
+      <c r="T2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="V2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="X2" s="15" t="s">
         <v>109</v>
       </c>
+      <c r="W2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="Y2" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA2" s="15" t="s">
         <v>112</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2796,6 +2834,16 @@
       <c r="AA3" s="13" t="n">
         <v>0.0121243171583553</v>
       </c>
+      <c r="AB3" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -2823,7 +2871,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J4" s="11" t="n">
         <v>2</v>
@@ -2834,7 +2882,7 @@
       <c r="L4" s="20" t="n">
         <v>26.092</v>
       </c>
-      <c r="M4" s="22" t="n">
+      <c r="M4" s="23" t="n">
         <v>4</v>
       </c>
       <c r="N4" s="13" t="s">
@@ -2843,7 +2891,7 @@
       <c r="O4" s="13" t="n">
         <v>0.0251</v>
       </c>
-      <c r="P4" s="22" t="n">
+      <c r="P4" s="23" t="n">
         <v>4</v>
       </c>
       <c r="Q4" s="13" t="s">
@@ -2852,16 +2900,16 @@
       <c r="R4" s="13" t="n">
         <v>1.33333333333333</v>
       </c>
-      <c r="S4" s="22" t="n">
+      <c r="S4" s="23" t="n">
         <v>4</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="23" t="n">
+      <c r="U4" s="24" t="n">
         <v>0.108766666666667</v>
       </c>
-      <c r="V4" s="22" t="n">
+      <c r="V4" s="23" t="n">
         <v>4</v>
       </c>
       <c r="W4" s="13" t="s">
@@ -2870,7 +2918,7 @@
       <c r="X4" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y4" s="22" t="n">
+      <c r="Y4" s="23" t="n">
         <v>4</v>
       </c>
       <c r="Z4" s="13" t="s">
@@ -2879,6 +2927,16 @@
       <c r="AA4" s="13" t="n">
         <v>0.0188252804927974</v>
       </c>
+      <c r="AB4" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -2914,10 +2972,10 @@
       <c r="K5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="M5" s="22" t="n">
+      <c r="L5" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="23" t="n">
         <v>1</v>
       </c>
       <c r="N5" s="13" t="s">
@@ -2926,7 +2984,7 @@
       <c r="O5" s="13" t="n">
         <v>0.0753</v>
       </c>
-      <c r="P5" s="22" t="n">
+      <c r="P5" s="23" t="n">
         <v>1</v>
       </c>
       <c r="Q5" s="13" t="s">
@@ -2935,16 +2993,16 @@
       <c r="R5" s="13" t="n">
         <v>0.2761</v>
       </c>
-      <c r="S5" s="22" t="n">
+      <c r="S5" s="23" t="n">
         <v>1</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="23" t="n">
+      <c r="U5" s="24" t="n">
         <v>0.0920333333333333</v>
       </c>
-      <c r="V5" s="22" t="n">
+      <c r="V5" s="23" t="n">
         <v>1</v>
       </c>
       <c r="W5" s="13" t="s">
@@ -2953,7 +3011,7 @@
       <c r="X5" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y5" s="22" t="n">
+      <c r="Y5" s="23" t="n">
         <v>1</v>
       </c>
       <c r="Z5" s="13" t="s">
@@ -2962,6 +3020,16 @@
       <c r="AA5" s="13" t="n">
         <v>0.0138036358519049</v>
       </c>
+      <c r="AB5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -2997,10 +3065,10 @@
       <c r="K6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="M6" s="22" t="n">
+      <c r="L6" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" s="23" t="n">
         <v>2</v>
       </c>
       <c r="N6" s="13" t="s">
@@ -3009,7 +3077,7 @@
       <c r="O6" s="13" t="n">
         <v>0.0418333333333333</v>
       </c>
-      <c r="P6" s="22" t="n">
+      <c r="P6" s="23" t="n">
         <v>2</v>
       </c>
       <c r="Q6" s="13" t="s">
@@ -3018,16 +3086,16 @@
       <c r="R6" s="13" t="n">
         <v>0.1004</v>
       </c>
-      <c r="S6" s="22" t="n">
+      <c r="S6" s="23" t="n">
         <v>2</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="23" t="n">
+      <c r="U6" s="24" t="n">
         <v>0.133866666666667</v>
       </c>
-      <c r="V6" s="22" t="n">
+      <c r="V6" s="23" t="n">
         <v>2</v>
       </c>
       <c r="W6" s="13" t="s">
@@ -3036,7 +3104,7 @@
       <c r="X6" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y6" s="22" t="n">
+      <c r="Y6" s="23" t="n">
         <v>2</v>
       </c>
       <c r="Z6" s="13" t="s">
@@ -3045,6 +3113,16 @@
       <c r="AA6" s="13" t="n">
         <v>0.0117755801755239</v>
       </c>
+      <c r="AB6" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -3080,10 +3158,10 @@
       <c r="K7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="M7" s="22" t="n">
+      <c r="L7" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" s="23" t="n">
         <v>5</v>
       </c>
       <c r="N7" s="13" t="s">
@@ -3092,7 +3170,7 @@
       <c r="O7" s="13" t="n">
         <v>0.133866666666667</v>
       </c>
-      <c r="P7" s="22" t="n">
+      <c r="P7" s="23" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="13" t="s">
@@ -3101,16 +3179,16 @@
       <c r="R7" s="13" t="n">
         <v>0.4016</v>
       </c>
-      <c r="S7" s="22" t="n">
+      <c r="S7" s="23" t="n">
         <v>5</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U7" s="23" t="n">
+      <c r="U7" s="24" t="n">
         <v>0.1255</v>
       </c>
-      <c r="V7" s="22" t="n">
+      <c r="V7" s="23" t="n">
         <v>5</v>
       </c>
       <c r="W7" s="13" t="s">
@@ -3119,7 +3197,7 @@
       <c r="X7" s="13" t="n">
         <v>0.0334666666666667</v>
       </c>
-      <c r="Y7" s="22" t="n">
+      <c r="Y7" s="23" t="n">
         <v>5</v>
       </c>
       <c r="Z7" s="13" t="s">
@@ -3128,6 +3206,16 @@
       <c r="AA7" s="13" t="n">
         <v>0.0265026114295218</v>
       </c>
+      <c r="AB7" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
@@ -3151,7 +3239,7 @@
       <c r="G8" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>18</v>
       </c>
       <c r="I8" s="21" t="n">
@@ -3163,10 +3251,10 @@
       <c r="K8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="25" t="n">
+      <c r="L8" s="26" t="n">
         <v>40.6</v>
       </c>
-      <c r="M8" s="22" t="n">
+      <c r="M8" s="23" t="n">
         <v>6</v>
       </c>
       <c r="N8" s="13" t="s">
@@ -3175,7 +3263,7 @@
       <c r="O8" s="13" t="n">
         <v>0.435066666666667</v>
       </c>
-      <c r="P8" s="22" t="n">
+      <c r="P8" s="23" t="n">
         <v>6</v>
       </c>
       <c r="Q8" s="13" t="s">
@@ -3184,7 +3272,7 @@
       <c r="R8" s="13" t="n">
         <v>0.443433333333333</v>
       </c>
-      <c r="S8" s="22" t="n">
+      <c r="S8" s="23" t="n">
         <v>6</v>
       </c>
       <c r="T8" s="13" t="s">
@@ -3193,7 +3281,7 @@
       <c r="U8" s="13" t="n">
         <v>0.192433333333333</v>
       </c>
-      <c r="V8" s="22" t="n">
+      <c r="V8" s="23" t="n">
         <v>6</v>
       </c>
       <c r="W8" s="13" t="s">
@@ -3202,15 +3290,25 @@
       <c r="X8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y8" s="22" t="n">
+      <c r="Y8" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="Z8" s="26" t="s">
+      <c r="Z8" s="27" t="s">
         <v>18</v>
       </c>
       <c r="AA8" s="13" t="n">
         <v>0.0136310464268352</v>
       </c>
+      <c r="AB8" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD8" s="12" t="n">
+        <v>0.1939</v>
+      </c>
+      <c r="AE8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="n">
@@ -3234,7 +3332,7 @@
       <c r="G9" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="24" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="21" t="n">
@@ -3246,10 +3344,10 @@
       <c r="K9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="25" t="n">
+      <c r="L9" s="26" t="n">
         <v>30.752</v>
       </c>
-      <c r="M9" s="22" t="n">
+      <c r="M9" s="23" t="n">
         <v>9</v>
       </c>
       <c r="N9" s="13" t="s">
@@ -3258,7 +3356,7 @@
       <c r="O9" s="13" t="n">
         <v>0.0334666666666667</v>
       </c>
-      <c r="P9" s="22" t="n">
+      <c r="P9" s="23" t="n">
         <v>9</v>
       </c>
       <c r="Q9" s="13" t="s">
@@ -3267,7 +3365,7 @@
       <c r="R9" s="13" t="n">
         <v>0.359766666666667</v>
       </c>
-      <c r="S9" s="22" t="n">
+      <c r="S9" s="23" t="n">
         <v>9</v>
       </c>
       <c r="T9" s="13" t="s">
@@ -3276,7 +3374,7 @@
       <c r="U9" s="13" t="n">
         <v>0.108766666666667</v>
       </c>
-      <c r="V9" s="22" t="n">
+      <c r="V9" s="23" t="n">
         <v>9</v>
       </c>
       <c r="W9" s="13" t="s">
@@ -3285,15 +3383,25 @@
       <c r="X9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y9" s="22" t="n">
+      <c r="Y9" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="Z9" s="26" t="s">
+      <c r="Z9" s="27" t="s">
         <v>25</v>
       </c>
       <c r="AA9" s="13" t="n">
         <v>0.0045187085817363</v>
       </c>
+      <c r="AB9" s="23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -3317,7 +3425,7 @@
       <c r="G10" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="21" t="n">
@@ -3329,10 +3437,10 @@
       <c r="K10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="25" t="n">
+      <c r="L10" s="26" t="n">
         <v>19.147</v>
       </c>
-      <c r="M10" s="22" t="n">
+      <c r="M10" s="23" t="n">
         <v>8</v>
       </c>
       <c r="N10" s="13" t="s">
@@ -3341,7 +3449,7 @@
       <c r="O10" s="13" t="n">
         <v>0.0920333333333333</v>
       </c>
-      <c r="P10" s="22" t="n">
+      <c r="P10" s="23" t="n">
         <v>8</v>
       </c>
       <c r="Q10" s="13" t="s">
@@ -3350,7 +3458,7 @@
       <c r="R10" s="13" t="n">
         <v>0.3263</v>
       </c>
-      <c r="S10" s="22" t="n">
+      <c r="S10" s="23" t="n">
         <v>8</v>
       </c>
       <c r="T10" s="13" t="s">
@@ -3359,7 +3467,7 @@
       <c r="U10" s="13" t="n">
         <v>0.108766666666667</v>
       </c>
-      <c r="V10" s="22" t="n">
+      <c r="V10" s="23" t="n">
         <v>8</v>
       </c>
       <c r="W10" s="13" t="s">
@@ -3368,15 +3476,25 @@
       <c r="X10" s="13" t="n">
         <v>0.0167333333333333</v>
       </c>
-      <c r="Y10" s="22" t="n">
+      <c r="Y10" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="Z10" s="26" t="s">
+      <c r="Z10" s="27" t="s">
         <v>23</v>
       </c>
       <c r="AA10" s="13" t="n">
         <v>0.00432449050738173</v>
       </c>
+      <c r="AB10" s="23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
@@ -3400,7 +3518,7 @@
       <c r="G11" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="24" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="21" t="n">
@@ -3412,10 +3530,10 @@
       <c r="K11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="25" t="n">
+      <c r="L11" s="26" t="n">
         <v>23.09</v>
       </c>
-      <c r="M11" s="22" t="n">
+      <c r="M11" s="23" t="n">
         <v>7</v>
       </c>
       <c r="N11" s="13" t="s">
@@ -3424,7 +3542,7 @@
       <c r="O11" s="13" t="n">
         <v>0.0251</v>
       </c>
-      <c r="P11" s="22" t="n">
+      <c r="P11" s="23" t="n">
         <v>7</v>
       </c>
       <c r="Q11" s="13" t="s">
@@ -3433,7 +3551,7 @@
       <c r="R11" s="13" t="n">
         <v>0.217533333333333</v>
       </c>
-      <c r="S11" s="22" t="n">
+      <c r="S11" s="23" t="n">
         <v>7</v>
       </c>
       <c r="T11" s="13" t="s">
@@ -3442,7 +3560,7 @@
       <c r="U11" s="13" t="n">
         <v>0.108766666666667</v>
       </c>
-      <c r="V11" s="22" t="n">
+      <c r="V11" s="23" t="n">
         <v>7</v>
       </c>
       <c r="W11" s="13" t="s">
@@ -3451,15 +3569,25 @@
       <c r="X11" s="13" t="n">
         <v>0.0251</v>
       </c>
-      <c r="Y11" s="22" t="n">
+      <c r="Y11" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="Z11" s="26" t="s">
+      <c r="Z11" s="27" t="s">
         <v>21</v>
       </c>
       <c r="AA11" s="13" t="n">
         <v>0.00391454564644475</v>
       </c>
+      <c r="AB11" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD11" s="12" t="n">
+        <v>0.1467</v>
+      </c>
+      <c r="AE11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -3483,7 +3611,7 @@
       <c r="G12" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="24" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="21" t="n">
@@ -3495,10 +3623,10 @@
       <c r="K12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="25" t="n">
+      <c r="L12" s="26" t="n">
         <v>20.146</v>
       </c>
-      <c r="M12" s="22" t="n">
+      <c r="M12" s="23" t="n">
         <v>10</v>
       </c>
       <c r="N12" s="13" t="s">
@@ -3507,7 +3635,7 @@
       <c r="O12" s="13" t="n">
         <v>0.0920333333333333</v>
       </c>
-      <c r="P12" s="22" t="n">
+      <c r="P12" s="23" t="n">
         <v>10</v>
       </c>
       <c r="Q12" s="13" t="s">
@@ -3516,7 +3644,7 @@
       <c r="R12" s="13" t="n">
         <v>0.518733333333333</v>
       </c>
-      <c r="S12" s="22" t="n">
+      <c r="S12" s="23" t="n">
         <v>10</v>
       </c>
       <c r="T12" s="13" t="s">
@@ -3525,7 +3653,7 @@
       <c r="U12" s="13" t="n">
         <v>0.234266666666667</v>
       </c>
-      <c r="V12" s="22" t="n">
+      <c r="V12" s="23" t="n">
         <v>10</v>
       </c>
       <c r="W12" s="13" t="s">
@@ -3534,15 +3662,25 @@
       <c r="X12" s="13" t="n">
         <v>0.0167333333333333</v>
       </c>
-      <c r="Y12" s="22" t="n">
+      <c r="Y12" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="Z12" s="26" t="s">
+      <c r="Z12" s="27" t="s">
         <v>26</v>
       </c>
       <c r="AA12" s="13" t="n">
         <v>0.0011765025714505</v>
       </c>
+      <c r="AB12" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD12" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3566,7 +3704,7 @@
       <c r="G13" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="24" t="s">
         <v>27</v>
       </c>
       <c r="I13" s="21" t="n">
@@ -3578,10 +3716,10 @@
       <c r="K13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="25" t="n">
+      <c r="L13" s="26" t="n">
         <v>24.56</v>
       </c>
-      <c r="M13" s="22" t="n">
+      <c r="M13" s="23" t="n">
         <v>14</v>
       </c>
       <c r="N13" s="13" t="s">
@@ -3590,7 +3728,7 @@
       <c r="O13" s="13" t="n">
         <v>0.0502</v>
       </c>
-      <c r="P13" s="22" t="n">
+      <c r="P13" s="23" t="n">
         <v>14</v>
       </c>
       <c r="Q13" s="13" t="s">
@@ -3599,7 +3737,7 @@
       <c r="R13" s="13" t="n">
         <v>0.209166666666667</v>
       </c>
-      <c r="S13" s="22" t="n">
+      <c r="S13" s="23" t="n">
         <v>14</v>
       </c>
       <c r="T13" s="13" t="s">
@@ -3608,7 +3746,7 @@
       <c r="U13" s="13" t="n">
         <v>0.142233333333333</v>
       </c>
-      <c r="V13" s="22" t="n">
+      <c r="V13" s="23" t="n">
         <v>14</v>
       </c>
       <c r="W13" s="13" t="s">
@@ -3617,15 +3755,25 @@
       <c r="X13" s="13" t="n">
         <v>0.00836666666666667</v>
       </c>
-      <c r="Y13" s="22" t="n">
+      <c r="Y13" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="Z13" s="26" t="s">
+      <c r="Z13" s="27" t="s">
         <v>32</v>
       </c>
       <c r="AA13" s="13" t="n">
         <v>0.0224634511808203</v>
       </c>
+      <c r="AB13" s="23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD13" s="12" t="n">
+        <v>0.0233</v>
+      </c>
+      <c r="AE13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -3649,7 +3797,7 @@
       <c r="G14" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="24" t="s">
         <v>31</v>
       </c>
       <c r="I14" s="21" t="n">
@@ -3661,10 +3809,10 @@
       <c r="K14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="25" t="n">
+      <c r="L14" s="26" t="n">
         <v>27.943</v>
       </c>
-      <c r="M14" s="22" t="n">
+      <c r="M14" s="23" t="n">
         <v>13</v>
       </c>
       <c r="N14" s="13" t="s">
@@ -3673,7 +3821,7 @@
       <c r="O14" s="13" t="n">
         <v>0.0502</v>
       </c>
-      <c r="P14" s="22" t="n">
+      <c r="P14" s="23" t="n">
         <v>13</v>
       </c>
       <c r="Q14" s="13" t="s">
@@ -3682,7 +3830,7 @@
       <c r="R14" s="13" t="n">
         <v>0.2259</v>
       </c>
-      <c r="S14" s="22" t="n">
+      <c r="S14" s="23" t="n">
         <v>13</v>
       </c>
       <c r="T14" s="13" t="s">
@@ -3691,7 +3839,7 @@
       <c r="U14" s="13" t="n">
         <v>0.1004</v>
       </c>
-      <c r="V14" s="22" t="n">
+      <c r="V14" s="23" t="n">
         <v>13</v>
       </c>
       <c r="W14" s="13" t="s">
@@ -3700,15 +3848,25 @@
       <c r="X14" s="13" t="n">
         <v>0.133866666666667</v>
       </c>
-      <c r="Y14" s="22" t="n">
+      <c r="Y14" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="Z14" s="26" t="s">
+      <c r="Z14" s="27" t="s">
         <v>31</v>
       </c>
       <c r="AA14" s="13" t="n">
         <v>0.0132043903359517</v>
       </c>
+      <c r="AB14" s="23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD14" s="12" t="n">
+        <v>2.1247</v>
+      </c>
+      <c r="AE14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3732,7 +3890,7 @@
       <c r="G15" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="24" t="s">
         <v>32</v>
       </c>
       <c r="I15" s="21" t="n">
@@ -3744,10 +3902,10 @@
       <c r="K15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="25" t="n">
+      <c r="L15" s="26" t="n">
         <v>24.022</v>
       </c>
-      <c r="M15" s="22" t="n">
+      <c r="M15" s="23" t="n">
         <v>11</v>
       </c>
       <c r="N15" s="13" t="s">
@@ -3756,7 +3914,7 @@
       <c r="O15" s="13" t="n">
         <v>0.0251</v>
       </c>
-      <c r="P15" s="22" t="n">
+      <c r="P15" s="23" t="n">
         <v>11</v>
       </c>
       <c r="Q15" s="13" t="s">
@@ -3765,7 +3923,7 @@
       <c r="R15" s="13" t="n">
         <v>0.1506</v>
       </c>
-      <c r="S15" s="22" t="n">
+      <c r="S15" s="23" t="n">
         <v>11</v>
       </c>
       <c r="T15" s="13" t="s">
@@ -3774,7 +3932,7 @@
       <c r="U15" s="13" t="n">
         <v>0.0669333333333333</v>
       </c>
-      <c r="V15" s="22" t="n">
+      <c r="V15" s="23" t="n">
         <v>11</v>
       </c>
       <c r="W15" s="13" t="s">
@@ -3783,15 +3941,25 @@
       <c r="X15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y15" s="22" t="n">
+      <c r="Y15" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="Z15" s="26" t="s">
+      <c r="Z15" s="27" t="s">
         <v>27</v>
       </c>
       <c r="AA15" s="13" t="n">
         <v>0.00246006895581199</v>
       </c>
+      <c r="AB15" s="23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD15" s="12" t="n">
+        <v>0.9222</v>
+      </c>
+      <c r="AE15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3815,7 +3983,7 @@
       <c r="G16" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="24" t="s">
         <v>29</v>
       </c>
       <c r="I16" s="21" t="n">
@@ -3827,10 +3995,10 @@
       <c r="K16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="25" t="n">
+      <c r="L16" s="26" t="n">
         <v>22.43</v>
       </c>
-      <c r="M16" s="22" t="n">
+      <c r="M16" s="23" t="n">
         <v>12</v>
       </c>
       <c r="N16" s="13" t="s">
@@ -3839,7 +4007,7 @@
       <c r="O16" s="13" t="n">
         <v>0.0167333333333333</v>
       </c>
-      <c r="P16" s="22" t="n">
+      <c r="P16" s="23" t="n">
         <v>12</v>
       </c>
       <c r="Q16" s="13" t="s">
@@ -3848,7 +4016,7 @@
       <c r="R16" s="13" t="n">
         <v>0.251</v>
       </c>
-      <c r="S16" s="22" t="n">
+      <c r="S16" s="23" t="n">
         <v>12</v>
       </c>
       <c r="T16" s="13" t="s">
@@ -3857,7 +4025,7 @@
       <c r="U16" s="13" t="n">
         <v>0.1004</v>
       </c>
-      <c r="V16" s="22" t="n">
+      <c r="V16" s="23" t="n">
         <v>12</v>
       </c>
       <c r="W16" s="13" t="s">
@@ -3866,15 +4034,25 @@
       <c r="X16" s="13" t="n">
         <v>0.1004</v>
       </c>
-      <c r="Y16" s="22" t="n">
+      <c r="Y16" s="23" t="n">
         <v>12</v>
       </c>
-      <c r="Z16" s="26" t="s">
+      <c r="Z16" s="27" t="s">
         <v>29</v>
       </c>
       <c r="AA16" s="13" t="n">
         <v>0.0178123720671392</v>
       </c>
+      <c r="AB16" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD16" s="12" t="n">
+        <v>0.4623</v>
+      </c>
+      <c r="AE16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3898,7 +4076,7 @@
       <c r="G17" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="24" t="s">
         <v>33</v>
       </c>
       <c r="I17" s="21" t="n">
@@ -3910,10 +4088,10 @@
       <c r="K17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="25" t="n">
+      <c r="L17" s="26" t="n">
         <v>25.474</v>
       </c>
-      <c r="M17" s="22" t="n">
+      <c r="M17" s="23" t="n">
         <v>15</v>
       </c>
       <c r="N17" s="13" t="s">
@@ -3922,7 +4100,7 @@
       <c r="O17" s="13" t="n">
         <v>0.0669333333333333</v>
       </c>
-      <c r="P17" s="22" t="n">
+      <c r="P17" s="23" t="n">
         <v>15</v>
       </c>
       <c r="Q17" s="13" t="s">
@@ -3931,7 +4109,7 @@
       <c r="R17" s="13" t="n">
         <v>0.192433333333333</v>
       </c>
-      <c r="S17" s="22" t="n">
+      <c r="S17" s="23" t="n">
         <v>15</v>
       </c>
       <c r="T17" s="13" t="s">
@@ -3940,7 +4118,7 @@
       <c r="U17" s="13" t="n">
         <v>0.133866666666667</v>
       </c>
-      <c r="V17" s="22" t="n">
+      <c r="V17" s="23" t="n">
         <v>15</v>
       </c>
       <c r="W17" s="13" t="s">
@@ -3949,15 +4127,25 @@
       <c r="X17" s="13" t="n">
         <v>0.0585666666666667</v>
       </c>
-      <c r="Y17" s="22" t="n">
+      <c r="Y17" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="Z17" s="26" t="s">
+      <c r="Z17" s="27" t="s">
         <v>33</v>
       </c>
       <c r="AA17" s="13" t="n">
         <v>0.0184886971317453</v>
       </c>
+      <c r="AB17" s="23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC17" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -3993,10 +4181,10 @@
       <c r="K18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="25" t="n">
+      <c r="L18" s="26" t="n">
         <v>29.385</v>
       </c>
-      <c r="M18" s="22" t="n">
+      <c r="M18" s="23" t="n">
         <v>16</v>
       </c>
       <c r="N18" s="13" t="s">
@@ -4005,7 +4193,7 @@
       <c r="O18" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="P18" s="22" t="n">
+      <c r="P18" s="23" t="n">
         <v>16</v>
       </c>
       <c r="Q18" s="13" t="s">
@@ -4014,7 +4202,7 @@
       <c r="R18" s="13" t="n">
         <v>0.0669333333333333</v>
       </c>
-      <c r="S18" s="22" t="n">
+      <c r="S18" s="23" t="n">
         <v>16</v>
       </c>
       <c r="T18" s="13" t="s">
@@ -4023,7 +4211,7 @@
       <c r="U18" s="13" t="n">
         <v>0.0669333333333333</v>
       </c>
-      <c r="V18" s="22" t="n">
+      <c r="V18" s="23" t="n">
         <v>16</v>
       </c>
       <c r="W18" s="13" t="s">
@@ -4032,15 +4220,25 @@
       <c r="X18" s="13" t="n">
         <v>0.00836666666666667</v>
       </c>
-      <c r="Y18" s="22" t="n">
+      <c r="Y18" s="23" t="n">
         <v>16</v>
       </c>
-      <c r="Z18" s="26" t="s">
+      <c r="Z18" s="27" t="s">
         <v>34</v>
       </c>
       <c r="AA18" s="13" t="n">
         <v>0.00762303942890771</v>
       </c>
+      <c r="AB18" s="23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC18" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD18" s="12" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="AE18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="n">
@@ -4076,10 +4274,10 @@
       <c r="K19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="25" t="n">
+      <c r="L19" s="26" t="n">
         <v>39.71</v>
       </c>
-      <c r="M19" s="22" t="n">
+      <c r="M19" s="23" t="n">
         <v>19</v>
       </c>
       <c r="N19" s="13" t="s">
@@ -4088,7 +4286,7 @@
       <c r="O19" s="13" t="n">
         <v>0.1004</v>
       </c>
-      <c r="P19" s="22" t="n">
+      <c r="P19" s="23" t="n">
         <v>19</v>
       </c>
       <c r="Q19" s="13" t="s">
@@ -4097,7 +4295,7 @@
       <c r="R19" s="13" t="n">
         <v>0.2008</v>
       </c>
-      <c r="S19" s="22" t="n">
+      <c r="S19" s="23" t="n">
         <v>19</v>
       </c>
       <c r="T19" s="13" t="s">
@@ -4106,7 +4304,7 @@
       <c r="U19" s="13" t="n">
         <v>0.0585666666666667</v>
       </c>
-      <c r="V19" s="22" t="n">
+      <c r="V19" s="23" t="n">
         <v>19</v>
       </c>
       <c r="W19" s="13" t="s">
@@ -4115,15 +4313,25 @@
       <c r="X19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y19" s="22" t="n">
+      <c r="Y19" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="Z19" s="26" t="s">
+      <c r="Z19" s="27" t="s">
         <v>40</v>
       </c>
       <c r="AA19" s="13" t="n">
         <v>0.0153349122380575</v>
       </c>
+      <c r="AB19" s="23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC19" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD19" s="12" t="n">
+        <v>1.7521</v>
+      </c>
+      <c r="AE19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="n">
@@ -4159,10 +4367,10 @@
       <c r="K20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="25" t="n">
+      <c r="L20" s="26" t="n">
         <v>36.928</v>
       </c>
-      <c r="M20" s="22" t="n">
+      <c r="M20" s="23" t="n">
         <v>20</v>
       </c>
       <c r="N20" s="13" t="s">
@@ -4171,7 +4379,7 @@
       <c r="O20" s="13" t="n">
         <v>0.0585666666666667</v>
       </c>
-      <c r="P20" s="22" t="n">
+      <c r="P20" s="23" t="n">
         <v>20</v>
       </c>
       <c r="Q20" s="13" t="s">
@@ -4180,7 +4388,7 @@
       <c r="R20" s="13" t="n">
         <v>0.1757</v>
       </c>
-      <c r="S20" s="22" t="n">
+      <c r="S20" s="23" t="n">
         <v>20</v>
       </c>
       <c r="T20" s="13" t="s">
@@ -4189,7 +4397,7 @@
       <c r="U20" s="13" t="n">
         <v>0.0920333333333333</v>
       </c>
-      <c r="V20" s="22" t="n">
+      <c r="V20" s="23" t="n">
         <v>20</v>
       </c>
       <c r="W20" s="13" t="s">
@@ -4198,15 +4406,25 @@
       <c r="X20" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y20" s="22" t="n">
+      <c r="Y20" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="Z20" s="26" t="s">
+      <c r="Z20" s="27" t="s">
         <v>42</v>
       </c>
       <c r="AA20" s="13" t="n">
         <v>0.00657075166952383</v>
       </c>
+      <c r="AB20" s="23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC20" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD20" s="12" t="n">
+        <v>3.2146</v>
+      </c>
+      <c r="AE20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -4242,10 +4460,10 @@
       <c r="K21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="25" t="n">
+      <c r="L21" s="26" t="n">
         <v>24.453</v>
       </c>
-      <c r="M21" s="22" t="n">
+      <c r="M21" s="23" t="n">
         <v>18</v>
       </c>
       <c r="N21" s="13" t="s">
@@ -4254,7 +4472,7 @@
       <c r="O21" s="13" t="n">
         <v>0.0167333333333333</v>
       </c>
-      <c r="P21" s="22" t="n">
+      <c r="P21" s="23" t="n">
         <v>18</v>
       </c>
       <c r="Q21" s="13" t="s">
@@ -4263,7 +4481,7 @@
       <c r="R21" s="13" t="n">
         <v>0.142233333333333</v>
       </c>
-      <c r="S21" s="22" t="n">
+      <c r="S21" s="23" t="n">
         <v>18</v>
       </c>
       <c r="T21" s="13" t="s">
@@ -4272,7 +4490,7 @@
       <c r="U21" s="13" t="n">
         <v>0.0836666666666667</v>
       </c>
-      <c r="V21" s="22" t="n">
+      <c r="V21" s="23" t="n">
         <v>18</v>
       </c>
       <c r="W21" s="13" t="s">
@@ -4281,15 +4499,25 @@
       <c r="X21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y21" s="22" t="n">
+      <c r="Y21" s="23" t="n">
         <v>18</v>
       </c>
-      <c r="Z21" s="26" t="s">
+      <c r="Z21" s="27" t="s">
         <v>38</v>
       </c>
       <c r="AA21" s="13" t="n">
         <v>0.00351775388276233</v>
       </c>
+      <c r="AB21" s="23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC21" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD21" s="12" t="n">
+        <v>2.1795</v>
+      </c>
+      <c r="AE21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="n">
@@ -4325,10 +4553,10 @@
       <c r="K22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L22" s="25" t="n">
+      <c r="L22" s="26" t="n">
         <v>24.885</v>
       </c>
-      <c r="M22" s="22" t="n">
+      <c r="M22" s="23" t="n">
         <v>17</v>
       </c>
       <c r="N22" s="13" t="s">
@@ -4337,7 +4565,7 @@
       <c r="O22" s="13" t="n">
         <v>0.0251</v>
       </c>
-      <c r="P22" s="22" t="n">
+      <c r="P22" s="23" t="n">
         <v>17</v>
       </c>
       <c r="Q22" s="13" t="s">
@@ -4346,7 +4574,7 @@
       <c r="R22" s="13" t="n">
         <v>0.142233333333333</v>
       </c>
-      <c r="S22" s="22" t="n">
+      <c r="S22" s="23" t="n">
         <v>17</v>
       </c>
       <c r="T22" s="13" t="s">
@@ -4355,7 +4583,7 @@
       <c r="U22" s="13" t="n">
         <v>0.0920333333333333</v>
       </c>
-      <c r="V22" s="22" t="n">
+      <c r="V22" s="23" t="n">
         <v>17</v>
       </c>
       <c r="W22" s="13" t="s">
@@ -4364,15 +4592,25 @@
       <c r="X22" s="13" t="n">
         <v>0.0334666666666667</v>
       </c>
-      <c r="Y22" s="22" t="n">
+      <c r="Y22" s="23" t="n">
         <v>17</v>
       </c>
-      <c r="Z22" s="26" t="s">
+      <c r="Z22" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AA22" s="13" t="n">
         <v>0.0140346746027685</v>
       </c>
+      <c r="AB22" s="23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC22" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD22" s="12" t="n">
+        <v>0.1235</v>
+      </c>
+      <c r="AE22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="n">
@@ -4408,10 +4646,10 @@
       <c r="K23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="25" t="n">
+      <c r="L23" s="26" t="n">
         <v>22.414</v>
       </c>
-      <c r="M23" s="22" t="n">
+      <c r="M23" s="23" t="n">
         <v>22</v>
       </c>
       <c r="N23" s="13" t="s">
@@ -4420,7 +4658,7 @@
       <c r="O23" s="13" t="n">
         <v>0.167333333333333</v>
       </c>
-      <c r="P23" s="22" t="n">
+      <c r="P23" s="23" t="n">
         <v>22</v>
       </c>
       <c r="Q23" s="13" t="s">
@@ -4429,7 +4667,7 @@
       <c r="R23" s="13" t="n">
         <v>0.635866666666667</v>
       </c>
-      <c r="S23" s="22" t="n">
+      <c r="S23" s="23" t="n">
         <v>22</v>
       </c>
       <c r="T23" s="13" t="s">
@@ -4438,7 +4676,7 @@
       <c r="U23" s="13" t="n">
         <v>0.242633333333333</v>
       </c>
-      <c r="V23" s="22" t="n">
+      <c r="V23" s="23" t="n">
         <v>22</v>
       </c>
       <c r="W23" s="13" t="s">
@@ -4447,15 +4685,25 @@
       <c r="X23" s="13" t="n">
         <v>0.0418333333333333</v>
       </c>
-      <c r="Y23" s="22" t="n">
+      <c r="Y23" s="23" t="n">
         <v>22</v>
       </c>
-      <c r="Z23" s="26" t="s">
+      <c r="Z23" s="27" t="s">
         <v>46</v>
       </c>
       <c r="AA23" s="13" t="n">
         <v>0.00586152387227183</v>
       </c>
+      <c r="AB23" s="23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC23" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD23" s="12" t="n">
+        <v>0.2776</v>
+      </c>
+      <c r="AE23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -4491,10 +4739,10 @@
       <c r="K24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="25" t="n">
+      <c r="L24" s="26" t="n">
         <v>17.038</v>
       </c>
-      <c r="M24" s="22" t="n">
+      <c r="M24" s="23" t="n">
         <v>21</v>
       </c>
       <c r="N24" s="13" t="s">
@@ -4503,7 +4751,7 @@
       <c r="O24" s="13" t="n">
         <v>0.0669333333333333</v>
       </c>
-      <c r="P24" s="22" t="n">
+      <c r="P24" s="23" t="n">
         <v>21</v>
       </c>
       <c r="Q24" s="13" t="s">
@@ -4512,7 +4760,7 @@
       <c r="R24" s="13" t="n">
         <v>1.06256666666667</v>
       </c>
-      <c r="S24" s="22" t="n">
+      <c r="S24" s="23" t="n">
         <v>21</v>
       </c>
       <c r="T24" s="13" t="s">
@@ -4521,7 +4769,7 @@
       <c r="U24" s="13" t="n">
         <v>0.9287</v>
       </c>
-      <c r="V24" s="22" t="n">
+      <c r="V24" s="23" t="n">
         <v>21</v>
       </c>
       <c r="W24" s="13" t="s">
@@ -4530,15 +4778,25 @@
       <c r="X24" s="13" t="n">
         <v>0.0836666666666667</v>
       </c>
-      <c r="Y24" s="22" t="n">
+      <c r="Y24" s="23" t="n">
         <v>21</v>
       </c>
-      <c r="Z24" s="26" t="s">
+      <c r="Z24" s="27" t="s">
         <v>44</v>
       </c>
       <c r="AA24" s="13" t="n">
         <v>0.0389687891794386</v>
       </c>
+      <c r="AB24" s="23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC24" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD24" s="12" t="n">
+        <v>1.3227</v>
+      </c>
+      <c r="AE24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -4574,10 +4832,10 @@
       <c r="K25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L25" s="25" t="n">
+      <c r="L25" s="26" t="n">
         <v>23.456</v>
       </c>
-      <c r="M25" s="22" t="n">
+      <c r="M25" s="23" t="n">
         <v>23</v>
       </c>
       <c r="N25" s="13" t="s">
@@ -4586,7 +4844,7 @@
       <c r="O25" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="P25" s="22" t="n">
+      <c r="P25" s="23" t="n">
         <v>23</v>
       </c>
       <c r="Q25" s="13" t="s">
@@ -4595,7 +4853,7 @@
       <c r="R25" s="13" t="n">
         <v>0.0502</v>
       </c>
-      <c r="S25" s="22" t="n">
+      <c r="S25" s="23" t="n">
         <v>23</v>
       </c>
       <c r="T25" s="13" t="s">
@@ -4604,7 +4862,7 @@
       <c r="U25" s="13" t="n">
         <v>0.0418333333333333</v>
       </c>
-      <c r="V25" s="22" t="n">
+      <c r="V25" s="23" t="n">
         <v>23</v>
       </c>
       <c r="W25" s="13" t="s">
@@ -4613,15 +4871,25 @@
       <c r="X25" s="13" t="n">
         <v>0.00836666666666667</v>
       </c>
-      <c r="Y25" s="22" t="n">
+      <c r="Y25" s="23" t="n">
         <v>23</v>
       </c>
-      <c r="Z25" s="26" t="s">
+      <c r="Z25" s="27" t="s">
         <v>48</v>
       </c>
       <c r="AA25" s="13" t="n">
         <v>0.00846607700278894</v>
       </c>
+      <c r="AB25" s="23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC25" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD25" s="12" t="n">
+        <v>2.5491</v>
+      </c>
+      <c r="AE25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -4657,10 +4925,10 @@
       <c r="K26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="25" t="n">
+      <c r="L26" s="26" t="n">
         <v>20.935</v>
       </c>
-      <c r="M26" s="22" t="n">
+      <c r="M26" s="23" t="n">
         <v>24</v>
       </c>
       <c r="N26" s="13" t="s">
@@ -4669,7 +4937,7 @@
       <c r="O26" s="13" t="n">
         <v>0.0418333333333333</v>
       </c>
-      <c r="P26" s="22" t="n">
+      <c r="P26" s="23" t="n">
         <v>24</v>
       </c>
       <c r="Q26" s="13" t="s">
@@ -4678,7 +4946,7 @@
       <c r="R26" s="13" t="n">
         <v>0.6024</v>
       </c>
-      <c r="S26" s="22" t="n">
+      <c r="S26" s="23" t="n">
         <v>24</v>
       </c>
       <c r="T26" s="13" t="s">
@@ -4687,7 +4955,7 @@
       <c r="U26" s="13" t="n">
         <v>0.309566666666667</v>
       </c>
-      <c r="V26" s="22" t="n">
+      <c r="V26" s="23" t="n">
         <v>24</v>
       </c>
       <c r="W26" s="13" t="s">
@@ -4696,15 +4964,25 @@
       <c r="X26" s="13" t="n">
         <v>0.1506</v>
       </c>
-      <c r="Y26" s="22" t="n">
+      <c r="Y26" s="23" t="n">
         <v>24</v>
       </c>
-      <c r="Z26" s="26" t="s">
+      <c r="Z26" s="27" t="s">
         <v>50</v>
       </c>
       <c r="AA26" s="13" t="n">
         <v>0.0113196994217435</v>
       </c>
+      <c r="AB26" s="23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC26" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD26" s="12" t="n">
+        <v>3.0682</v>
+      </c>
+      <c r="AE26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -4740,10 +5018,10 @@
       <c r="K27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L27" s="25" t="n">
+      <c r="L27" s="26" t="n">
         <v>47.184</v>
       </c>
-      <c r="M27" s="22" t="n">
+      <c r="M27" s="23" t="n">
         <v>25</v>
       </c>
       <c r="N27" s="13" t="s">
@@ -4752,7 +5030,7 @@
       <c r="O27" s="13" t="n">
         <v>0.0167333333333333</v>
       </c>
-      <c r="P27" s="22" t="n">
+      <c r="P27" s="23" t="n">
         <v>25</v>
       </c>
       <c r="Q27" s="13" t="s">
@@ -4761,7 +5039,7 @@
       <c r="R27" s="13" t="n">
         <v>1.1546</v>
       </c>
-      <c r="S27" s="22" t="n">
+      <c r="S27" s="23" t="n">
         <v>25</v>
       </c>
       <c r="T27" s="13" t="s">
@@ -4770,7 +5048,7 @@
       <c r="U27" s="13" t="n">
         <v>0.970533333333333</v>
       </c>
-      <c r="V27" s="22" t="n">
+      <c r="V27" s="23" t="n">
         <v>25</v>
       </c>
       <c r="W27" s="13" t="s">
@@ -4779,15 +5057,25 @@
       <c r="X27" s="13" t="n">
         <v>0.0920333333333333</v>
       </c>
-      <c r="Y27" s="22" t="n">
+      <c r="Y27" s="23" t="n">
         <v>25</v>
       </c>
-      <c r="Z27" s="26" t="s">
+      <c r="Z27" s="27" t="s">
         <v>51</v>
       </c>
       <c r="AA27" s="13" t="n">
         <v>0.0132217412302024</v>
       </c>
+      <c r="AB27" s="23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC27" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD27" s="12" t="n">
+        <v>3.1729</v>
+      </c>
+      <c r="AE27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -4811,7 +5099,7 @@
       <c r="G28" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="24" t="s">
         <v>53</v>
       </c>
       <c r="I28" s="21" t="n">
@@ -4823,10 +5111,10 @@
       <c r="K28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L28" s="25" t="n">
+      <c r="L28" s="26" t="n">
         <v>23.767</v>
       </c>
-      <c r="M28" s="22" t="n">
+      <c r="M28" s="23" t="n">
         <v>28</v>
       </c>
       <c r="N28" s="13" t="s">
@@ -4835,7 +5123,7 @@
       <c r="O28" s="13" t="n">
         <v>1.56456666666667</v>
       </c>
-      <c r="P28" s="22" t="n">
+      <c r="P28" s="23" t="n">
         <v>28</v>
       </c>
       <c r="Q28" s="13" t="s">
@@ -4844,7 +5132,7 @@
       <c r="R28" s="13" t="n">
         <v>1.7821</v>
       </c>
-      <c r="S28" s="22" t="n">
+      <c r="S28" s="23" t="n">
         <v>28</v>
       </c>
       <c r="T28" s="13" t="s">
@@ -4853,7 +5141,7 @@
       <c r="U28" s="13" t="n">
         <v>1.47253333333333</v>
       </c>
-      <c r="V28" s="22" t="n">
+      <c r="V28" s="23" t="n">
         <v>28</v>
       </c>
       <c r="W28" s="13" t="s">
@@ -4862,15 +5150,25 @@
       <c r="X28" s="13" t="n">
         <v>0.4016</v>
       </c>
-      <c r="Y28" s="22" t="n">
+      <c r="Y28" s="23" t="n">
         <v>28</v>
       </c>
-      <c r="Z28" s="26" t="s">
+      <c r="Z28" s="27" t="s">
         <v>57</v>
       </c>
       <c r="AA28" s="13" t="n">
         <v>0.00652881367858148</v>
       </c>
+      <c r="AB28" s="23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD28" s="12" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="AE28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -4894,7 +5192,7 @@
       <c r="G29" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="24" t="s">
         <v>55</v>
       </c>
       <c r="I29" s="21" t="n">
@@ -4906,10 +5204,10 @@
       <c r="K29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L29" s="25" t="n">
+      <c r="L29" s="26" t="n">
         <v>23.768</v>
       </c>
-      <c r="M29" s="22" t="n">
+      <c r="M29" s="23" t="n">
         <v>26</v>
       </c>
       <c r="N29" s="13" t="s">
@@ -4918,7 +5216,7 @@
       <c r="O29" s="13" t="n">
         <v>0.970533333333333</v>
       </c>
-      <c r="P29" s="22" t="n">
+      <c r="P29" s="23" t="n">
         <v>26</v>
       </c>
       <c r="Q29" s="13" t="s">
@@ -4934,7 +5232,7 @@
         <v>53</v>
       </c>
       <c r="U29" s="13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="V29" s="11" t="n">
         <v>26</v>
@@ -4943,17 +5241,27 @@
         <v>53</v>
       </c>
       <c r="X29" s="13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Y29" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="Z29" s="26" t="s">
+      <c r="Z29" s="27" t="s">
         <v>53</v>
       </c>
       <c r="AA29" s="13" t="n">
         <v>0.00951740526571655</v>
       </c>
+      <c r="AB29" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC29" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD29" s="12" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="AE29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -4977,7 +5285,7 @@
       <c r="G30" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="24" t="s">
         <v>57</v>
       </c>
       <c r="I30" s="21" t="n">
@@ -4989,10 +5297,10 @@
       <c r="K30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L30" s="25" t="n">
+      <c r="L30" s="26" t="n">
         <v>25.883</v>
       </c>
-      <c r="M30" s="22" t="n">
+      <c r="M30" s="23" t="n">
         <v>30</v>
       </c>
       <c r="N30" s="13" t="s">
@@ -5001,7 +5309,7 @@
       <c r="O30" s="13" t="n">
         <v>0.2008</v>
       </c>
-      <c r="P30" s="22" t="n">
+      <c r="P30" s="23" t="n">
         <v>30</v>
       </c>
       <c r="Q30" s="13" t="s">
@@ -5010,7 +5318,7 @@
       <c r="R30" s="13" t="n">
         <v>3.05383333333333</v>
       </c>
-      <c r="S30" s="22" t="n">
+      <c r="S30" s="23" t="n">
         <v>30</v>
       </c>
       <c r="T30" s="13" t="s">
@@ -5019,7 +5327,7 @@
       <c r="U30" s="13" t="n">
         <v>1.48926666666667</v>
       </c>
-      <c r="V30" s="22" t="n">
+      <c r="V30" s="23" t="n">
         <v>30</v>
       </c>
       <c r="W30" s="13" t="s">
@@ -5028,15 +5336,25 @@
       <c r="X30" s="13" t="n">
         <v>0.4016</v>
       </c>
-      <c r="Y30" s="22" t="n">
+      <c r="Y30" s="23" t="n">
         <v>30</v>
       </c>
-      <c r="Z30" s="26" t="s">
+      <c r="Z30" s="27" t="s">
         <v>61</v>
       </c>
       <c r="AA30" s="13" t="n">
         <v>0.00745832587058312</v>
       </c>
+      <c r="AB30" s="23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC30" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD30" s="12" t="n">
+        <v>0.3416</v>
+      </c>
+      <c r="AE30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -5060,7 +5378,7 @@
       <c r="G31" s="11" t="n">
         <v>29</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="24" t="s">
         <v>59</v>
       </c>
       <c r="I31" s="21" t="n">
@@ -5072,10 +5390,10 @@
       <c r="K31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L31" s="25" t="n">
+      <c r="L31" s="26" t="n">
         <v>45.954</v>
       </c>
-      <c r="M31" s="22" t="n">
+      <c r="M31" s="23" t="n">
         <v>27</v>
       </c>
       <c r="N31" s="13" t="s">
@@ -5084,7 +5402,7 @@
       <c r="O31" s="13" t="n">
         <v>0.234266666666667</v>
       </c>
-      <c r="P31" s="22" t="n">
+      <c r="P31" s="23" t="n">
         <v>27</v>
       </c>
       <c r="Q31" s="13" t="s">
@@ -5093,7 +5411,7 @@
       <c r="R31" s="13" t="n">
         <v>2.47653333333333</v>
       </c>
-      <c r="S31" s="22" t="n">
+      <c r="S31" s="23" t="n">
         <v>27</v>
       </c>
       <c r="T31" s="13" t="s">
@@ -5102,7 +5420,7 @@
       <c r="U31" s="13" t="n">
         <v>1.5813</v>
       </c>
-      <c r="V31" s="22" t="n">
+      <c r="V31" s="23" t="n">
         <v>27</v>
       </c>
       <c r="W31" s="13" t="s">
@@ -5111,15 +5429,25 @@
       <c r="X31" s="13" t="n">
         <v>0.753</v>
       </c>
-      <c r="Y31" s="22" t="n">
+      <c r="Y31" s="23" t="n">
         <v>27</v>
       </c>
-      <c r="Z31" s="26" t="s">
+      <c r="Z31" s="27" t="s">
         <v>55</v>
       </c>
       <c r="AA31" s="13" t="n">
         <v>0.0161446872681217</v>
       </c>
+      <c r="AB31" s="23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC31" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD31" s="12" t="n">
+        <v>2.0139</v>
+      </c>
+      <c r="AE31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -5143,7 +5471,7 @@
       <c r="G32" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="24" t="s">
         <v>61</v>
       </c>
       <c r="I32" s="21" t="n">
@@ -5155,10 +5483,10 @@
       <c r="K32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L32" s="25" t="n">
+      <c r="L32" s="26" t="n">
         <v>25.601</v>
       </c>
-      <c r="M32" s="22" t="n">
+      <c r="M32" s="23" t="n">
         <v>29</v>
       </c>
       <c r="N32" s="13" t="s">
@@ -5167,7 +5495,7 @@
       <c r="O32" s="13" t="n">
         <v>0.0418333333333333</v>
       </c>
-      <c r="P32" s="22" t="n">
+      <c r="P32" s="23" t="n">
         <v>29</v>
       </c>
       <c r="Q32" s="13" t="s">
@@ -5176,7 +5504,7 @@
       <c r="R32" s="13" t="n">
         <v>0.443433333333333</v>
       </c>
-      <c r="S32" s="22" t="n">
+      <c r="S32" s="23" t="n">
         <v>29</v>
       </c>
       <c r="T32" s="13" t="s">
@@ -5185,7 +5513,7 @@
       <c r="U32" s="13" t="n">
         <v>0.117133333333333</v>
       </c>
-      <c r="V32" s="22" t="n">
+      <c r="V32" s="23" t="n">
         <v>29</v>
       </c>
       <c r="W32" s="13" t="s">
@@ -5194,15 +5522,25 @@
       <c r="X32" s="13" t="n">
         <v>0.1004</v>
       </c>
-      <c r="Y32" s="22" t="n">
+      <c r="Y32" s="23" t="n">
         <v>29</v>
       </c>
-      <c r="Z32" s="26" t="s">
+      <c r="Z32" s="27" t="s">
         <v>59</v>
       </c>
       <c r="AA32" s="13" t="n">
         <v>0.00239934082593455</v>
       </c>
+      <c r="AB32" s="23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC32" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD32" s="12" t="n">
+        <v>1.2738</v>
+      </c>
+      <c r="AE32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -5226,7 +5564,7 @@
       <c r="G33" s="11" t="n">
         <v>31</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="24" t="s">
         <v>63</v>
       </c>
       <c r="I33" s="21" t="n">
@@ -5238,54 +5576,64 @@
       <c r="K33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="25" t="n">
+      <c r="L33" s="26" t="n">
         <v>29.104</v>
       </c>
-      <c r="M33" s="22" t="n">
+      <c r="M33" s="23" t="n">
         <v>35</v>
       </c>
-      <c r="N33" s="26" t="s">
+      <c r="N33" s="27" t="s">
         <v>71</v>
       </c>
       <c r="O33" s="13" t="n">
         <v>0.594033333333333</v>
       </c>
-      <c r="P33" s="22" t="n">
+      <c r="P33" s="23" t="n">
         <v>35</v>
       </c>
-      <c r="Q33" s="26" t="s">
+      <c r="Q33" s="27" t="s">
         <v>71</v>
       </c>
       <c r="R33" s="13" t="n">
         <v>3.27973333333333</v>
       </c>
-      <c r="S33" s="22" t="n">
+      <c r="S33" s="23" t="n">
         <v>35</v>
       </c>
-      <c r="T33" s="26" t="s">
+      <c r="T33" s="27" t="s">
         <v>71</v>
       </c>
       <c r="U33" s="13" t="n">
         <v>1.08766666666667</v>
       </c>
-      <c r="V33" s="22" t="n">
+      <c r="V33" s="23" t="n">
         <v>35</v>
       </c>
-      <c r="W33" s="26" t="s">
+      <c r="W33" s="27" t="s">
         <v>71</v>
       </c>
       <c r="X33" s="13" t="n">
         <v>1.6315</v>
       </c>
-      <c r="Y33" s="22" t="n">
+      <c r="Y33" s="23" t="n">
         <v>35</v>
       </c>
-      <c r="Z33" s="26" t="s">
+      <c r="Z33" s="27" t="s">
         <v>71</v>
       </c>
       <c r="AA33" s="13" t="n">
         <v>0.0590356580866361</v>
       </c>
+      <c r="AB33" s="23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC33" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD33" s="12" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="AE33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -5309,7 +5657,7 @@
       <c r="G34" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="24" t="s">
         <v>65</v>
       </c>
       <c r="I34" s="21" t="n">
@@ -5321,10 +5669,10 @@
       <c r="K34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L34" s="25" t="n">
+      <c r="L34" s="26" t="n">
         <v>29.366</v>
       </c>
-      <c r="M34" s="22" t="n">
+      <c r="M34" s="23" t="n">
         <v>31</v>
       </c>
       <c r="N34" s="13" t="s">
@@ -5333,7 +5681,7 @@
       <c r="O34" s="13" t="n">
         <v>0.468533333333333</v>
       </c>
-      <c r="P34" s="22" t="n">
+      <c r="P34" s="23" t="n">
         <v>31</v>
       </c>
       <c r="Q34" s="13" t="s">
@@ -5342,7 +5690,7 @@
       <c r="R34" s="13" t="n">
         <v>4.13313333333333</v>
       </c>
-      <c r="S34" s="22" t="n">
+      <c r="S34" s="23" t="n">
         <v>31</v>
       </c>
       <c r="T34" s="13" t="s">
@@ -5351,7 +5699,7 @@
       <c r="U34" s="13" t="n">
         <v>1.3052</v>
       </c>
-      <c r="V34" s="22" t="n">
+      <c r="V34" s="23" t="n">
         <v>31</v>
       </c>
       <c r="W34" s="13" t="s">
@@ -5360,15 +5708,25 @@
       <c r="X34" s="13" t="n">
         <v>1.52273333333333</v>
       </c>
-      <c r="Y34" s="22" t="n">
+      <c r="Y34" s="23" t="n">
         <v>31</v>
       </c>
-      <c r="Z34" s="26" t="s">
+      <c r="Z34" s="27" t="s">
         <v>63</v>
       </c>
       <c r="AA34" s="13" t="n">
         <v>0.0174850638384976</v>
       </c>
+      <c r="AB34" s="23" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC34" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD34" s="12" t="n">
+        <v>1.3803</v>
+      </c>
+      <c r="AE34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="n">
@@ -5392,7 +5750,7 @@
       <c r="G35" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="24" t="s">
         <v>67</v>
       </c>
       <c r="I35" s="21" t="n">
@@ -5404,10 +5762,10 @@
       <c r="K35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L35" s="25" t="n">
+      <c r="L35" s="26" t="n">
         <v>27.651</v>
       </c>
-      <c r="M35" s="22" t="n">
+      <c r="M35" s="23" t="n">
         <v>32</v>
       </c>
       <c r="N35" s="13" t="s">
@@ -5416,7 +5774,7 @@
       <c r="O35" s="13" t="n">
         <v>0.920333333333333</v>
       </c>
-      <c r="P35" s="22" t="n">
+      <c r="P35" s="23" t="n">
         <v>32</v>
       </c>
       <c r="Q35" s="13" t="s">
@@ -5425,7 +5783,7 @@
       <c r="R35" s="13" t="n">
         <v>3.8403</v>
       </c>
-      <c r="S35" s="22" t="n">
+      <c r="S35" s="23" t="n">
         <v>32</v>
       </c>
       <c r="T35" s="13" t="s">
@@ -5434,7 +5792,7 @@
       <c r="U35" s="13" t="n">
         <v>0.7028</v>
       </c>
-      <c r="V35" s="22" t="n">
+      <c r="V35" s="23" t="n">
         <v>32</v>
       </c>
       <c r="W35" s="13" t="s">
@@ -5443,18 +5801,28 @@
       <c r="X35" s="13" t="n">
         <v>1.19643333333333</v>
       </c>
-      <c r="Y35" s="22" t="n">
+      <c r="Y35" s="23" t="n">
         <v>32</v>
       </c>
-      <c r="Z35" s="26" t="s">
+      <c r="Z35" s="27" t="s">
         <v>65</v>
       </c>
       <c r="AA35" s="13" t="n">
         <v>0.00795346602103216</v>
       </c>
+      <c r="AB35" s="23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC35" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD35" s="12" t="n">
+        <v>11.6701</v>
+      </c>
+      <c r="AE35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27" t="n">
+      <c r="A36" s="28" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -5463,7 +5831,7 @@
       <c r="C36" s="18" t="n">
         <v>321.9</v>
       </c>
-      <c r="D36" s="27" t="n">
+      <c r="D36" s="28" t="n">
         <v>34</v>
       </c>
       <c r="E36" s="8" t="s">
@@ -5472,25 +5840,25 @@
       <c r="F36" s="18" t="n">
         <v>675</v>
       </c>
-      <c r="G36" s="27" t="n">
+      <c r="G36" s="28" t="n">
         <v>34</v>
       </c>
-      <c r="H36" s="28" t="s">
+      <c r="H36" s="29" t="s">
         <v>69</v>
       </c>
       <c r="I36" s="21" t="n">
         <v>279.7</v>
       </c>
-      <c r="J36" s="27" t="n">
+      <c r="J36" s="28" t="n">
         <v>34</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L36" s="25" t="n">
+      <c r="L36" s="26" t="n">
         <v>42.62</v>
       </c>
-      <c r="M36" s="22" t="n">
+      <c r="M36" s="23" t="n">
         <v>33</v>
       </c>
       <c r="N36" s="13" t="s">
@@ -5499,7 +5867,7 @@
       <c r="O36" s="13" t="n">
         <v>0.543833333333333</v>
       </c>
-      <c r="P36" s="22" t="n">
+      <c r="P36" s="23" t="n">
         <v>33</v>
       </c>
       <c r="Q36" s="13" t="s">
@@ -5508,7 +5876,7 @@
       <c r="R36" s="13" t="n">
         <v>3.02036666666667</v>
       </c>
-      <c r="S36" s="22" t="n">
+      <c r="S36" s="23" t="n">
         <v>33</v>
       </c>
       <c r="T36" s="13" t="s">
@@ -5517,7 +5885,7 @@
       <c r="U36" s="13" t="n">
         <v>1.255</v>
       </c>
-      <c r="V36" s="22" t="n">
+      <c r="V36" s="23" t="n">
         <v>33</v>
       </c>
       <c r="W36" s="13" t="s">
@@ -5526,15 +5894,25 @@
       <c r="X36" s="13" t="n">
         <v>2.0833</v>
       </c>
-      <c r="Y36" s="22" t="n">
+      <c r="Y36" s="23" t="n">
         <v>33</v>
       </c>
-      <c r="Z36" s="26" t="s">
+      <c r="Z36" s="27" t="s">
         <v>67</v>
       </c>
       <c r="AA36" s="13" t="n">
         <v>0.0112036403295551</v>
       </c>
+      <c r="AB36" s="23" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC36" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD36" s="12" t="n">
+        <v>4.6169</v>
+      </c>
+      <c r="AE36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -5558,7 +5936,7 @@
       <c r="G37" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="24" t="s">
         <v>71</v>
       </c>
       <c r="I37" s="21" t="n">
@@ -5570,54 +5948,64 @@
       <c r="K37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L37" s="25" t="n">
+      <c r="L37" s="26" t="n">
         <v>29.668</v>
       </c>
-      <c r="M37" s="22" t="n">
+      <c r="M37" s="23" t="n">
         <v>34</v>
       </c>
-      <c r="N37" s="26" t="s">
+      <c r="N37" s="27" t="s">
         <v>69</v>
       </c>
       <c r="O37" s="13" t="n">
         <v>0.485266666666667</v>
       </c>
-      <c r="P37" s="22" t="n">
+      <c r="P37" s="23" t="n">
         <v>34</v>
       </c>
-      <c r="Q37" s="26" t="s">
+      <c r="Q37" s="27" t="s">
         <v>69</v>
       </c>
       <c r="R37" s="13" t="n">
         <v>3.40523333333333</v>
       </c>
-      <c r="S37" s="22" t="n">
+      <c r="S37" s="23" t="n">
         <v>34</v>
       </c>
-      <c r="T37" s="26" t="s">
+      <c r="T37" s="27" t="s">
         <v>71</v>
       </c>
       <c r="U37" s="13" t="n">
         <v>0.9287</v>
       </c>
-      <c r="V37" s="22" t="n">
+      <c r="V37" s="23" t="n">
         <v>34</v>
       </c>
-      <c r="W37" s="26" t="s">
+      <c r="W37" s="27" t="s">
         <v>71</v>
       </c>
       <c r="X37" s="13" t="n">
         <v>1.84903333333333</v>
       </c>
-      <c r="Y37" s="22" t="n">
+      <c r="Y37" s="23" t="n">
         <v>34</v>
       </c>
-      <c r="Z37" s="26" t="s">
+      <c r="Z37" s="27" t="s">
         <v>71</v>
       </c>
       <c r="AA37" s="13" t="n">
         <v>0.0138873119386946</v>
       </c>
+      <c r="AB37" s="23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC37" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD37" s="12" t="n">
+        <v>5.8187</v>
+      </c>
+      <c r="AE37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -5641,7 +6029,7 @@
       <c r="G38" s="11" t="n">
         <v>39</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H38" s="24" t="s">
         <v>79</v>
       </c>
       <c r="I38" s="21" t="n">
@@ -5656,7 +6044,7 @@
       <c r="L38" s="18" t="n">
         <v>41.601</v>
       </c>
-      <c r="M38" s="22" t="n">
+      <c r="M38" s="23" t="n">
         <v>36</v>
       </c>
       <c r="N38" s="13" t="s">
@@ -5665,7 +6053,7 @@
       <c r="O38" s="13" t="n">
         <v>0.0585666666666667</v>
       </c>
-      <c r="P38" s="22" t="n">
+      <c r="P38" s="23" t="n">
         <v>36</v>
       </c>
       <c r="Q38" s="13" t="s">
@@ -5674,7 +6062,7 @@
       <c r="R38" s="13" t="n">
         <v>2.0331</v>
       </c>
-      <c r="S38" s="22" t="n">
+      <c r="S38" s="23" t="n">
         <v>36</v>
       </c>
       <c r="T38" s="13" t="s">
@@ -5683,7 +6071,7 @@
       <c r="U38" s="13" t="n">
         <v>0.594033333333333</v>
       </c>
-      <c r="V38" s="22" t="n">
+      <c r="V38" s="23" t="n">
         <v>36</v>
       </c>
       <c r="W38" s="13" t="s">
@@ -5692,15 +6080,25 @@
       <c r="X38" s="13" t="n">
         <v>1.34703333333333</v>
       </c>
-      <c r="Y38" s="22" t="n">
+      <c r="Y38" s="23" t="n">
         <v>36</v>
       </c>
-      <c r="Z38" s="26" t="s">
+      <c r="Z38" s="27" t="s">
         <v>73</v>
       </c>
       <c r="AA38" s="13" t="n">
         <v>0.0272390649387202</v>
       </c>
+      <c r="AB38" s="23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC38" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD38" s="12" t="n">
+        <v>8.395</v>
+      </c>
+      <c r="AE38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -5724,7 +6122,7 @@
       <c r="G39" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H39" s="24" t="s">
         <v>80</v>
       </c>
       <c r="I39" s="21" t="n">
@@ -5739,7 +6137,7 @@
       <c r="L39" s="18" t="n">
         <v>23.663</v>
       </c>
-      <c r="M39" s="22" t="n">
+      <c r="M39" s="23" t="n">
         <v>39</v>
       </c>
       <c r="N39" s="13" t="s">
@@ -5748,7 +6146,7 @@
       <c r="O39" s="13" t="n">
         <v>0.619133333333333</v>
       </c>
-      <c r="P39" s="22" t="n">
+      <c r="P39" s="23" t="n">
         <v>39</v>
       </c>
       <c r="Q39" s="13" t="s">
@@ -5757,7 +6155,7 @@
       <c r="R39" s="13" t="n">
         <v>4.518</v>
       </c>
-      <c r="S39" s="22" t="n">
+      <c r="S39" s="23" t="n">
         <v>39</v>
       </c>
       <c r="T39" s="13" t="s">
@@ -5766,7 +6164,7 @@
       <c r="U39" s="13" t="n">
         <v>1.32193333333333</v>
       </c>
-      <c r="V39" s="22" t="n">
+      <c r="V39" s="23" t="n">
         <v>39</v>
       </c>
       <c r="W39" s="13" t="s">
@@ -5775,15 +6173,25 @@
       <c r="X39" s="13" t="n">
         <v>2.24226666666667</v>
       </c>
-      <c r="Y39" s="22" t="n">
+      <c r="Y39" s="23" t="n">
         <v>39</v>
       </c>
-      <c r="Z39" s="26" t="s">
+      <c r="Z39" s="27" t="s">
         <v>79</v>
       </c>
       <c r="AA39" s="13" t="n">
         <v>0.044436959483663</v>
       </c>
+      <c r="AB39" s="23" t="n">
+        <v>39</v>
+      </c>
+      <c r="AC39" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD39" s="12" t="n">
+        <v>5.0882</v>
+      </c>
+      <c r="AE39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -5807,7 +6215,7 @@
       <c r="G40" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="H40" s="24" t="s">
         <v>73</v>
       </c>
       <c r="I40" s="21" t="n">
@@ -5822,7 +6230,7 @@
       <c r="L40" s="18" t="n">
         <v>35.001</v>
       </c>
-      <c r="M40" s="22" t="n">
+      <c r="M40" s="23" t="n">
         <v>37</v>
       </c>
       <c r="N40" s="13" t="s">
@@ -5831,7 +6239,7 @@
       <c r="O40" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="P40" s="22" t="n">
+      <c r="P40" s="23" t="n">
         <v>37</v>
       </c>
       <c r="Q40" s="13" t="s">
@@ -5840,7 +6248,7 @@
       <c r="R40" s="13" t="n">
         <v>0.1255</v>
       </c>
-      <c r="S40" s="22" t="n">
+      <c r="S40" s="23" t="n">
         <v>37</v>
       </c>
       <c r="T40" s="13" t="s">
@@ -5849,7 +6257,7 @@
       <c r="U40" s="13" t="n">
         <v>0.117133333333333</v>
       </c>
-      <c r="V40" s="22" t="n">
+      <c r="V40" s="23" t="n">
         <v>37</v>
       </c>
       <c r="W40" s="13" t="s">
@@ -5858,15 +6266,25 @@
       <c r="X40" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y40" s="22" t="n">
+      <c r="Y40" s="23" t="n">
         <v>37</v>
       </c>
-      <c r="Z40" s="26" t="s">
+      <c r="Z40" s="27" t="s">
         <v>75</v>
       </c>
       <c r="AA40" s="13" t="n">
         <v>0.0670897912775375</v>
       </c>
+      <c r="AB40" s="23" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC40" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD40" s="12" t="n">
+        <v>5.011</v>
+      </c>
+      <c r="AE40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -5890,7 +6308,7 @@
       <c r="G41" s="11" t="n">
         <v>37</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H41" s="24" t="s">
         <v>75</v>
       </c>
       <c r="I41" s="21" t="n">
@@ -5905,7 +6323,7 @@
       <c r="L41" s="18" t="n">
         <v>28.371</v>
       </c>
-      <c r="M41" s="22" t="n">
+      <c r="M41" s="23" t="n">
         <v>38</v>
       </c>
       <c r="N41" s="13" t="s">
@@ -5914,7 +6332,7 @@
       <c r="O41" s="13" t="n">
         <v>0.133866666666667</v>
       </c>
-      <c r="P41" s="22" t="n">
+      <c r="P41" s="23" t="n">
         <v>38</v>
       </c>
       <c r="Q41" s="13" t="s">
@@ -5923,7 +6341,7 @@
       <c r="R41" s="13" t="n">
         <v>1.53946666666667</v>
       </c>
-      <c r="S41" s="22" t="n">
+      <c r="S41" s="23" t="n">
         <v>38</v>
       </c>
       <c r="T41" s="13" t="s">
@@ -5932,7 +6350,7 @@
       <c r="U41" s="13" t="n">
         <v>0.309566666666667</v>
       </c>
-      <c r="V41" s="22" t="n">
+      <c r="V41" s="23" t="n">
         <v>38</v>
       </c>
       <c r="W41" s="13" t="s">
@@ -5941,15 +6359,25 @@
       <c r="X41" s="13" t="n">
         <v>1.61476666666667</v>
       </c>
-      <c r="Y41" s="22" t="n">
+      <c r="Y41" s="23" t="n">
         <v>38</v>
       </c>
-      <c r="Z41" s="26" t="s">
+      <c r="Z41" s="27" t="s">
         <v>77</v>
       </c>
       <c r="AA41" s="13" t="n">
         <v>0.0585914112273879</v>
       </c>
+      <c r="AB41" s="23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC41" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD41" s="12" t="n">
+        <v>6.3945</v>
+      </c>
+      <c r="AE41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -5973,7 +6401,7 @@
       <c r="G42" s="11" t="n">
         <v>38</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" s="24" t="s">
         <v>77</v>
       </c>
       <c r="I42" s="21" t="n">
@@ -5988,7 +6416,7 @@
       <c r="L42" s="18" t="n">
         <v>30.443</v>
       </c>
-      <c r="M42" s="22" t="n">
+      <c r="M42" s="23" t="n">
         <v>40</v>
       </c>
       <c r="N42" s="13" t="s">
@@ -5997,7 +6425,7 @@
       <c r="O42" s="13" t="n">
         <v>0.543833333333333</v>
       </c>
-      <c r="P42" s="22" t="n">
+      <c r="P42" s="23" t="n">
         <v>40</v>
       </c>
       <c r="Q42" s="13" t="s">
@@ -6006,7 +6434,7 @@
       <c r="R42" s="13" t="n">
         <v>6.53436666666667</v>
       </c>
-      <c r="S42" s="22" t="n">
+      <c r="S42" s="23" t="n">
         <v>40</v>
       </c>
       <c r="T42" s="13" t="s">
@@ -6015,7 +6443,7 @@
       <c r="U42" s="13" t="n">
         <v>1.41396666666667</v>
       </c>
-      <c r="V42" s="22" t="n">
+      <c r="V42" s="23" t="n">
         <v>40</v>
       </c>
       <c r="W42" s="13" t="s">
@@ -6024,15 +6452,25 @@
       <c r="X42" s="13" t="n">
         <v>2.17533333333333</v>
       </c>
-      <c r="Y42" s="22" t="n">
+      <c r="Y42" s="23" t="n">
         <v>40</v>
       </c>
-      <c r="Z42" s="26" t="s">
+      <c r="Z42" s="27" t="s">
         <v>80</v>
       </c>
       <c r="AA42" s="13" t="n">
         <v>0.0721181124146048</v>
       </c>
+      <c r="AB42" s="23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC42" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD42" s="12" t="n">
+        <v>1.4944</v>
+      </c>
+      <c r="AE42" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6053,12 +6491,12 @@
   <dimension ref="1:42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW2" activeCellId="1" sqref="C41:E41 AW2"/>
+      <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="9.30612244897959"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="9.30612244897959"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="13" width="9.30612244897959"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="13" width="8.75"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="13" width="16.1071428571429"/>
@@ -6066,149 +6504,149 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="J1" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="S1" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="T1" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="U1" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="V1" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="W1" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="X1" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="Y1" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="Z1" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AA1" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AB1" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AC1" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AD1" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AE1" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="AK1" s="30" t="s">
+      <c r="AF1" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="AL1" s="30" t="s">
+      <c r="AG1" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="AM1" s="30" t="s">
+      <c r="AH1" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="AN1" s="30" t="s">
+      <c r="AI1" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="AO1" s="30" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="AP1" s="30" t="s">
+      <c r="AK1" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="AQ1" s="30" t="s">
+      <c r="AL1" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="AR1" s="30" t="s">
+      <c r="AM1" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="AS1" s="30" t="s">
+      <c r="AN1" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="AT1" s="30" t="s">
+      <c r="AO1" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="AU1" s="30" t="s">
+      <c r="AP1" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="AV1" s="30" t="s">
+      <c r="AQ1" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="AW1" s="30" t="s">
+      <c r="AR1" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="AX1" s="30"/>
+      <c r="AS1" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT1" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU1" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV1" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW1" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="AX1" s="31"/>
       <c r="AY1" s="0"/>
       <c r="AZ1" s="0"/>
       <c r="BA1" s="0"/>
@@ -7184,162 +7622,162 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
+    <row r="2" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="E2" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="F2" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="G2" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="H2" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="I2" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="J2" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="K2" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="L2" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="M2" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="N2" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="O2" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="P2" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="Q2" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="W2" s="32" t="s">
+      <c r="R2" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="X2" s="32" t="s">
+      <c r="S2" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="T2" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="U2" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="V2" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="AB2" s="32" t="s">
+      <c r="W2" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="AC2" s="32" t="s">
+      <c r="X2" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="AD2" s="32" t="s">
+      <c r="Y2" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="AE2" s="32" t="s">
+      <c r="Z2" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="AF2" s="32" t="s">
+      <c r="AA2" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AB2" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="AH2" s="32" t="s">
+      <c r="AC2" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="AI2" s="32" t="s">
+      <c r="AD2" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="AJ2" s="32" t="s">
+      <c r="AE2" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="AK2" s="32" t="s">
+      <c r="AF2" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="AL2" s="32" t="s">
+      <c r="AG2" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="AM2" s="32" t="s">
+      <c r="AH2" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="AN2" s="32" t="s">
+      <c r="AI2" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="AO2" s="32" t="s">
+      <c r="AJ2" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="AP2" s="32" t="s">
+      <c r="AK2" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="AQ2" s="32" t="s">
+      <c r="AL2" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="AR2" s="32" t="s">
+      <c r="AM2" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="AS2" s="32" t="s">
+      <c r="AN2" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="AT2" s="32" t="s">
+      <c r="AO2" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="AU2" s="32" t="s">
+      <c r="AP2" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="AV2" s="32" t="s">
+      <c r="AQ2" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="AW2" s="32" t="s">
+      <c r="AR2" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="AX2" s="32"/>
+      <c r="AS2" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="AT2" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU2" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="AV2" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="AW2" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="AX2" s="33"/>
     </row>
-    <row r="3" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="n">
+    <row r="3" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C3" s="13" t="n">
         <v>1.42156828963892</v>
@@ -7488,11 +7926,11 @@
       <c r="AMJ3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="n">
+      <c r="A4" s="23" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C4" s="13" t="n">
         <v>2.02921430208543</v>
@@ -7637,11 +8075,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="n">
+      <c r="A5" s="23" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C5" s="13" t="n">
         <v>1.80448036949605</v>
@@ -7786,11 +8224,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="n">
+      <c r="A6" s="23" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C6" s="13" t="n">
         <v>2.59074486130135</v>
@@ -7935,11 +8373,11 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="n">
+      <c r="A7" s="23" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C7" s="13" t="n">
         <v>1.56193532853879</v>
@@ -8084,11 +8522,11 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="n">
+      <c r="A8" s="23" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C8" s="13" t="n">
         <v>2.02240530714084</v>
@@ -8233,11 +8671,11 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="n">
+      <c r="A9" s="23" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C9" s="13" t="n">
         <v>1.4065563648108</v>
@@ -8382,11 +8820,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="n">
+      <c r="A10" s="23" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C10" s="13" t="n">
         <v>1.23028700290532</v>
@@ -8531,11 +8969,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="n">
+      <c r="A11" s="23" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C11" s="13" t="n">
         <v>1.16878652995749</v>
@@ -8680,11 +9118,11 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="n">
+      <c r="A12" s="23" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C12" s="13" t="n">
         <v>1.48831152960346</v>
@@ -8829,11 +9267,11 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="n">
+      <c r="A13" s="23" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C13" s="13" t="n">
         <v>0.825130939502715</v>
@@ -8978,11 +9416,11 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="n">
+      <c r="A14" s="23" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C14" s="13" t="n">
         <v>1.19254493369273</v>
@@ -9127,11 +9565,11 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="n">
+      <c r="A15" s="23" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C15" s="13" t="n">
         <v>1.14712476565312</v>
@@ -9276,11 +9714,11 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="n">
+      <c r="A16" s="23" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C16" s="13" t="n">
         <v>1.54508609881703</v>
@@ -9425,11 +9863,11 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="n">
+      <c r="A17" s="23" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C17" s="13" t="n">
         <v>0.935547255983814</v>
@@ -9574,11 +10012,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="n">
+      <c r="A18" s="23" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C18" s="13" t="n">
         <v>0.957025787339949</v>
@@ -9723,11 +10161,11 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="n">
+      <c r="A19" s="23" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C19" s="13" t="n">
         <v>0.743242870925659</v>
@@ -9872,11 +10310,11 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="n">
+      <c r="A20" s="23" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C20" s="13" t="n">
         <v>1.01028336526207</v>
@@ -10021,11 +10459,11 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="n">
+      <c r="A21" s="23" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C21" s="13" t="n">
         <v>0.821168075992017</v>
@@ -10170,11 +10608,11 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="n">
+      <c r="A22" s="23" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C22" s="13" t="n">
         <v>0.995227326997864</v>
@@ -10319,11 +10757,11 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="n">
+      <c r="A23" s="23" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C23" s="13" t="n">
         <v>0.915140263610318</v>
@@ -10468,11 +10906,11 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="n">
+      <c r="A24" s="23" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C24" s="13" t="n">
         <v>0.915319649643317</v>
@@ -10617,11 +11055,11 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="n">
+      <c r="A25" s="23" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C25" s="13" t="n">
         <v>0.637384379954406</v>
@@ -10766,11 +11204,11 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="n">
+      <c r="A26" s="23" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C26" s="13" t="n">
         <v>1.0636296674177</v>
@@ -10915,11 +11353,11 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="n">
+      <c r="A27" s="23" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C27" s="13" t="n">
         <v>1.1712627998733</v>
@@ -11064,11 +11502,11 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="n">
+      <c r="A28" s="23" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C28" s="13" t="n">
         <v>0.54487998360774</v>
@@ -11213,11 +11651,11 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="n">
+      <c r="A29" s="23" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C29" s="13" t="n">
         <v>0.474053662045919</v>
@@ -11362,11 +11800,11 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="n">
+      <c r="A30" s="23" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C30" s="13" t="n">
         <v>0.781421225826135</v>
@@ -11511,11 +11949,11 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="n">
+      <c r="A31" s="23" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C31" s="13" t="n">
         <v>0.742322860284438</v>
@@ -11660,11 +12098,11 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="n">
+      <c r="A32" s="23" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C32" s="13" t="n">
         <v>0.90278639101448</v>
@@ -11809,11 +12247,11 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="n">
+      <c r="A33" s="23" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C33" s="13" t="n">
         <v>0.60086192469604</v>
@@ -11958,11 +12396,11 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="n">
+      <c r="A34" s="23" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C34" s="13" t="n">
         <v>0.650988448696138</v>
@@ -12107,11 +12545,11 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="n">
+      <c r="A35" s="23" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C35" s="13" t="n">
         <v>0.507780008888333</v>
@@ -12256,11 +12694,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="n">
+      <c r="A36" s="23" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C36" s="13" t="n">
         <v>0.895236980098885</v>
@@ -12405,11 +12843,11 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="n">
+      <c r="A37" s="23" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C37" s="13" t="n">
         <v>1.26539930866198</v>
@@ -12554,11 +12992,11 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22" t="n">
+      <c r="A38" s="23" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C38" s="13" t="n">
         <v>1.06907595027077</v>
@@ -12703,11 +13141,11 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22" t="n">
+      <c r="A39" s="23" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C39" s="13" t="n">
         <v>1.16322589107933</v>
@@ -12852,11 +13290,11 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="n">
+      <c r="A40" s="23" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C40" s="13" t="n">
         <v>0.908546299027985</v>
@@ -13001,11 +13439,11 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22" t="n">
+      <c r="A41" s="23" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C41" s="13" t="n">
         <v>0.704099907875142</v>
@@ -13150,11 +13588,11 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22" t="n">
+      <c r="A42" s="23" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C42" s="13" t="n">
         <v>0.505340195432238</v>
@@ -13380,7 +13818,7 @@
   <dimension ref="1:42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW2" activeCellId="1" sqref="C41:E41 AW2"/>
+      <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13391,147 +13829,147 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="H1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="J1" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="S1" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="T1" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="U1" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="V1" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="W1" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="X1" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="Y1" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="Z1" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AA1" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AB1" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AC1" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AD1" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AE1" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="AK1" s="30" t="s">
+      <c r="AF1" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="AL1" s="30" t="s">
+      <c r="AG1" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="AM1" s="30" t="s">
+      <c r="AH1" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="AN1" s="30" t="s">
+      <c r="AI1" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="AO1" s="30" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="AP1" s="30" t="s">
+      <c r="AK1" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="AQ1" s="30" t="s">
+      <c r="AL1" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="AR1" s="30" t="s">
+      <c r="AM1" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="AS1" s="30" t="s">
+      <c r="AN1" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="AT1" s="30" t="s">
+      <c r="AO1" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="AU1" s="30" t="s">
+      <c r="AP1" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="AV1" s="30" t="s">
+      <c r="AQ1" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="AW1" s="30" t="s">
+      <c r="AR1" s="31" t="s">
         <v>266</v>
+      </c>
+      <c r="AS1" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AT1" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="AU1" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="AV1" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="AW1" s="31" t="s">
+        <v>271</v>
       </c>
       <c r="AX1" s="0"/>
       <c r="AY1" s="0"/>
@@ -14509,162 +14947,162 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
+    <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="H2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="D2" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="F2" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="G2" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="H2" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="I2" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="J2" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="K2" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="L2" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="M2" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="N2" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="O2" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="P2" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="Q2" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="R2" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="S2" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="T2" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="Z2" s="34" t="s">
+      <c r="U2" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="AA2" s="34" t="s">
+      <c r="V2" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="AB2" s="34" t="s">
+      <c r="W2" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="AC2" s="34" t="s">
+      <c r="X2" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="AD2" s="34" t="s">
+      <c r="Y2" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="AE2" s="34" t="s">
+      <c r="Z2" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="AF2" s="34" t="s">
+      <c r="AA2" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AB2" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="AH2" s="34" t="s">
+      <c r="AC2" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="AI2" s="34" t="s">
+      <c r="AD2" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="AJ2" s="34" t="s">
+      <c r="AE2" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="AK2" s="34" t="s">
+      <c r="AF2" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="AL2" s="34" t="s">
+      <c r="AG2" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="AM2" s="34" t="s">
+      <c r="AH2" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="AN2" s="34" t="s">
+      <c r="AI2" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="AO2" s="34" t="s">
+      <c r="AJ2" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="AP2" s="34" t="s">
+      <c r="AK2" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="AQ2" s="34" t="s">
+      <c r="AL2" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="AR2" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="AS2" s="34" t="s">
+      <c r="AM2" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="AT2" s="34" t="s">
+      <c r="AN2" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="AU2" s="34" t="s">
+      <c r="AO2" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="AV2" s="34" t="s">
+      <c r="AP2" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="AW2" s="34" t="s">
+      <c r="AQ2" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="AX2" s="34"/>
+      <c r="AR2" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="AS2" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="AU2" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="AV2" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="AW2" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX2" s="35"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>0.100355695684766</v>
@@ -14813,7 +15251,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0.265128802293873</v>
@@ -14962,7 +15400,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0.105482006127592</v>
@@ -15111,7 +15549,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>0.0450557363116246</v>
@@ -15260,7 +15698,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>0.0466074839783307</v>
@@ -15409,7 +15847,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0.103229382612544</v>
@@ -15558,7 +15996,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>0.173211973565683</v>
@@ -15707,7 +16145,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>0.15187097380453</v>
@@ -15856,7 +16294,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>0.207430599620491</v>
@@ -16005,7 +16443,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>0.159510650492123</v>
@@ -16154,7 +16592,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>1.82967497409903</v>
@@ -16303,7 +16741,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>1.03086291106093</v>
@@ -16452,7 +16890,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>0.363497376039973</v>
@@ -16601,7 +17039,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>0.51427036422166</v>
@@ -16750,7 +17188,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>0.386627662542487</v>
@@ -16899,7 +17337,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>1.97258282408982</v>
@@ -17048,7 +17486,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>0.935251005795779</v>
@@ -17197,7 +17635,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>0.569937206000397</v>
@@ -17346,7 +17784,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>2.66628362838028</v>
@@ -17495,7 +17933,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>0.2853988787962</v>
@@ -17644,7 +18082,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>1.04279350024504</v>
@@ -17793,7 +18231,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>0.972887498313826</v>
@@ -17942,7 +18380,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>1.48309597160084</v>
@@ -18091,7 +18529,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>3.71237401042125</v>
@@ -18240,7 +18678,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>0.974802699968948</v>
@@ -18389,7 +18827,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>1.05264822093624</v>
@@ -18538,7 +18976,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>3.93134221901726</v>
@@ -18687,7 +19125,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>2.45259142149337</v>
@@ -18836,7 +19274,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>0.611432195852916</v>
@@ -18985,7 +19423,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>0.85989680224259</v>
@@ -19134,7 +19572,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>1.9789908918959</v>
@@ -19283,7 +19721,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>5.90276710325919</v>
@@ -19432,7 +19870,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>7.98732317273645</v>
@@ -19581,7 +20019,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>7.65658559391494</v>
@@ -19730,7 +20168,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>6.64062509626975</v>
@@ -19879,7 +20317,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>9.52672353131162</v>
@@ -20028,7 +20466,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>13.3452707488095</v>
@@ -20177,7 +20615,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>7.65353473263011</v>
@@ -20326,7 +20764,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>11.4343686702708</v>
@@ -20475,7 +20913,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>11.2890187689096</v>
@@ -20648,7 +21086,7 @@
   <dimension ref="A1:AX42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C41:E41 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -20659,306 +21097,306 @@
     <col collapsed="false" hidden="false" max="1025" min="8" style="4" width="13.3265306122449"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
-      <c r="C1" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="H1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="J1" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="S1" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="T1" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="U1" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="V1" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="W1" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="X1" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="Y1" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="Z1" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AA1" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AB1" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AC1" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AD1" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AE1" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="AK1" s="30" t="s">
+      <c r="AF1" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="AL1" s="30" t="s">
+      <c r="AG1" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="AM1" s="30" t="s">
+      <c r="AH1" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="AN1" s="30" t="s">
+      <c r="AI1" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="AO1" s="30" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="AP1" s="30" t="s">
+      <c r="AK1" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="AQ1" s="30" t="s">
+      <c r="AL1" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="AR1" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS1" s="30" t="s">
+      <c r="AM1" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="AT1" s="30" t="s">
+      <c r="AN1" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="AU1" s="30" t="s">
+      <c r="AO1" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="AV1" s="30" t="s">
+      <c r="AP1" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="AW1" s="30" t="s">
+      <c r="AQ1" s="31" t="s">
         <v>358</v>
+      </c>
+      <c r="AR1" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS1" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="AT1" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="AU1" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="AV1" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="AW1" s="31" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>361</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="H2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="F2" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="G2" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="H2" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="I2" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="J2" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="K2" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="L2" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="M2" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="N2" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="O2" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="P2" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="Q2" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="R2" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="X2" s="37" t="s">
+      <c r="S2" s="38" t="s">
         <v>380</v>
       </c>
-      <c r="Y2" s="37" t="s">
+      <c r="T2" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="Z2" s="37" t="s">
+      <c r="U2" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="AA2" s="37" t="s">
+      <c r="V2" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="AB2" s="37" t="s">
+      <c r="W2" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="AC2" s="37" t="s">
+      <c r="X2" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="AD2" s="37" t="s">
+      <c r="Y2" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="AE2" s="37" t="s">
+      <c r="Z2" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="AF2" s="37" t="s">
+      <c r="AA2" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="AG2" s="37" t="s">
+      <c r="AB2" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="AH2" s="37" t="s">
+      <c r="AC2" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="AI2" s="37" t="s">
+      <c r="AD2" s="38" t="s">
         <v>391</v>
       </c>
-      <c r="AJ2" s="37" t="s">
+      <c r="AE2" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="AK2" s="37" t="s">
+      <c r="AF2" s="38" t="s">
         <v>393</v>
       </c>
-      <c r="AL2" s="37" t="s">
+      <c r="AG2" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="AM2" s="37" t="s">
+      <c r="AH2" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="AN2" s="37" t="s">
+      <c r="AI2" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="AO2" s="37" t="s">
+      <c r="AJ2" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="AP2" s="37" t="s">
+      <c r="AK2" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="AQ2" s="37" t="s">
+      <c r="AL2" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="AR2" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="AS2" s="37" t="s">
+      <c r="AM2" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="AT2" s="37" t="s">
+      <c r="AN2" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="AU2" s="37" t="s">
+      <c r="AO2" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="AV2" s="37" t="s">
+      <c r="AP2" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="AW2" s="37" t="s">
+      <c r="AQ2" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="AX2" s="37"/>
+      <c r="AR2" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AS2" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="AT2" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="AU2" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="AV2" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="AW2" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="AX2" s="38"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="n">
+      <c r="A3" s="39" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>2.02714253327118</v>
@@ -21103,11 +21541,11 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38" t="n">
+      <c r="A4" s="39" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0.748820095981664</v>
@@ -21252,11 +21690,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="n">
+      <c r="A5" s="39" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0.589940076332973</v>
@@ -21401,11 +21839,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38" t="n">
+      <c r="A6" s="39" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>0.592285208776858</v>
@@ -21550,11 +21988,11 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="n">
+      <c r="A7" s="39" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>0.492032865034003</v>
@@ -21699,11 +22137,11 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38" t="n">
+      <c r="A8" s="39" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0.467299228296743</v>
@@ -21848,11 +22286,11 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38" t="n">
+      <c r="A9" s="39" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>0.404404141066038</v>
@@ -21997,11 +22435,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="38" t="n">
+      <c r="A10" s="39" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>0.44596839646066</v>
@@ -22146,11 +22584,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="n">
+      <c r="A11" s="39" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>0.413128982193238</v>
@@ -22295,11 +22733,11 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38" t="n">
+      <c r="A12" s="39" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>1.46613919114427</v>
@@ -22444,11 +22882,11 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38" t="n">
+      <c r="A13" s="39" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>0.559827821624524</v>
@@ -22593,11 +23031,11 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="38" t="n">
+      <c r="A14" s="39" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>0.609588756824252</v>
@@ -22742,11 +23180,11 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="38" t="n">
+      <c r="A15" s="39" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>0.618947753349871</v>
@@ -22891,11 +23329,11 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="38" t="n">
+      <c r="A16" s="39" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>0.83453749526112</v>
@@ -23040,11 +23478,11 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="38" t="n">
+      <c r="A17" s="39" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>0.687546648443455</v>
@@ -23189,11 +23627,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="38" t="n">
+      <c r="A18" s="39" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>1.09306532865204</v>
@@ -23338,11 +23776,11 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38" t="n">
+      <c r="A19" s="39" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>1.54476132440097</v>
@@ -23487,11 +23925,11 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="38" t="n">
+      <c r="A20" s="39" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>1.69751060971335</v>
@@ -23636,11 +24074,11 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38" t="n">
+      <c r="A21" s="39" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>1.66902464865407</v>
@@ -23785,11 +24223,11 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="38" t="n">
+      <c r="A22" s="39" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>1.7599444051109</v>
@@ -23934,11 +24372,11 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="38" t="n">
+      <c r="A23" s="39" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>2.31912623312588</v>
@@ -24083,11 +24521,11 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="38" t="n">
+      <c r="A24" s="39" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>1.15326237383421</v>
@@ -24232,11 +24670,11 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38" t="n">
+      <c r="A25" s="39" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>0.770707093467072</v>
@@ -24381,11 +24819,11 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="38" t="n">
+      <c r="A26" s="39" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>0.797370156842707</v>
@@ -24530,11 +24968,11 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="38" t="n">
+      <c r="A27" s="39" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>2.03119880266926</v>
@@ -24679,11 +25117,11 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="38" t="n">
+      <c r="A28" s="39" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>1.67739964902808</v>
@@ -24828,11 +25266,11 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="38" t="n">
+      <c r="A29" s="39" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>4.00523692489812</v>
@@ -24977,11 +25415,11 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="38" t="n">
+      <c r="A30" s="39" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>0.925503474136017</v>
@@ -25126,11 +25564,11 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="38" t="n">
+      <c r="A31" s="39" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>2.23258223590396</v>
@@ -25275,11 +25713,11 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="38" t="n">
+      <c r="A32" s="39" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>0.972543669515585</v>
@@ -25424,11 +25862,11 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="38" t="n">
+      <c r="A33" s="39" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>0.934434179630113</v>
@@ -25573,11 +26011,11 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="38" t="n">
+      <c r="A34" s="39" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>0.950447170396208</v>
@@ -25722,11 +26160,11 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38" t="n">
+      <c r="A35" s="39" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>0.811753050876874</v>
@@ -25871,11 +26309,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="38" t="n">
+      <c r="A36" s="39" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>0.91747490422572</v>
@@ -26020,11 +26458,11 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="38" t="n">
+      <c r="A37" s="39" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>0.777233022426766</v>
@@ -26169,11 +26607,11 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="38" t="n">
+      <c r="A38" s="39" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>1.08136610577641</v>
@@ -26318,11 +26756,11 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="38" t="n">
+      <c r="A39" s="39" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>1.46572234909293</v>
@@ -26467,11 +26905,11 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="38" t="n">
+      <c r="A40" s="39" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>1.14432969508978</v>
@@ -26616,11 +27054,11 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="38" t="n">
+      <c r="A41" s="39" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>1.52146619459234</v>
@@ -26765,11 +27203,11 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="38" t="n">
+      <c r="A42" s="39" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>1.15042127172052</v>
@@ -26942,7 +27380,7 @@
   <dimension ref="1:42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW42" activeCellId="1" sqref="C41:E41 AW42"/>
+      <selection pane="topLeft" activeCell="AW42" activeCellId="0" sqref="AW42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -26953,147 +27391,147 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="H1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="J1" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="S1" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="T1" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="U1" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="V1" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="W1" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="X1" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="Y1" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="Z1" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AA1" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AB1" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AC1" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AD1" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AE1" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="AK1" s="30" t="s">
+      <c r="AF1" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="AL1" s="30" t="s">
+      <c r="AG1" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="AM1" s="30" t="s">
+      <c r="AH1" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="AN1" s="30" t="s">
+      <c r="AI1" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="AO1" s="30" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="AP1" s="30" t="s">
+      <c r="AK1" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="AQ1" s="30" t="s">
+      <c r="AL1" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="AR1" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS1" s="30" t="s">
+      <c r="AM1" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="AT1" s="30" t="s">
+      <c r="AN1" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="AU1" s="30" t="s">
+      <c r="AO1" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="AV1" s="30" t="s">
+      <c r="AP1" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="AW1" s="30" t="s">
+      <c r="AQ1" s="31" t="s">
         <v>358</v>
+      </c>
+      <c r="AR1" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS1" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="AT1" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="AU1" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="AV1" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="AW1" s="31" t="s">
+        <v>363</v>
       </c>
       <c r="AX1" s="0"/>
       <c r="AY1" s="0"/>
@@ -28072,161 +28510,161 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>361</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="H2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="F2" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="G2" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="H2" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="I2" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="J2" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="K2" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="L2" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="M2" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="N2" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="O2" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="P2" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="Q2" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="R2" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="X2" s="37" t="s">
+      <c r="S2" s="38" t="s">
         <v>380</v>
       </c>
-      <c r="Y2" s="37" t="s">
+      <c r="T2" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="Z2" s="37" t="s">
+      <c r="U2" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="AA2" s="37" t="s">
+      <c r="V2" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="AB2" s="37" t="s">
+      <c r="W2" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="AC2" s="37" t="s">
+      <c r="X2" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="AD2" s="37" t="s">
+      <c r="Y2" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="AE2" s="37" t="s">
+      <c r="Z2" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="AF2" s="37" t="s">
+      <c r="AA2" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="AG2" s="37" t="s">
+      <c r="AB2" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="AH2" s="37" t="s">
+      <c r="AC2" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="AI2" s="37" t="s">
+      <c r="AD2" s="38" t="s">
         <v>391</v>
       </c>
-      <c r="AJ2" s="37" t="s">
+      <c r="AE2" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="AK2" s="37" t="s">
+      <c r="AF2" s="38" t="s">
         <v>393</v>
       </c>
-      <c r="AL2" s="37" t="s">
+      <c r="AG2" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="AM2" s="37" t="s">
+      <c r="AH2" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="AN2" s="37" t="s">
+      <c r="AI2" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="AO2" s="37" t="s">
+      <c r="AJ2" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="AP2" s="37" t="s">
+      <c r="AK2" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="AQ2" s="37" t="s">
+      <c r="AL2" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="AR2" s="37" t="s">
+      <c r="AM2" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN2" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO2" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="AP2" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="AQ2" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="AR2" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="AS2" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="AS2" s="37" t="s">
-        <v>400</v>
-      </c>
-      <c r="AT2" s="37" t="s">
-        <v>401</v>
-      </c>
-      <c r="AU2" s="37" t="s">
-        <v>402</v>
-      </c>
-      <c r="AV2" s="37" t="s">
-        <v>403</v>
-      </c>
-      <c r="AW2" s="37" t="s">
-        <v>404</v>
-      </c>
-      <c r="AX2" s="37"/>
+      <c r="AT2" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="AU2" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="AV2" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="AW2" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="AX2" s="38"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="n">
+      <c r="A3" s="39" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>1.59087726425743</v>
@@ -28371,11 +28809,11 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38" t="n">
+      <c r="A4" s="39" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0.589336902478651</v>
@@ -28520,11 +28958,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="n">
+      <c r="A5" s="39" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0.789558761184255</v>
@@ -28669,11 +29107,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38" t="n">
+      <c r="A6" s="39" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>0.751800307382037</v>
@@ -28818,11 +29256,11 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="n">
+      <c r="A7" s="39" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>0.644576269323299</v>
@@ -28967,11 +29405,11 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38" t="n">
+      <c r="A8" s="39" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0.620986556093287</v>
@@ -29116,11 +29554,11 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38" t="n">
+      <c r="A9" s="39" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>0.526198590073511</v>
@@ -29265,11 +29703,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="38" t="n">
+      <c r="A10" s="39" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>0.611256023642774</v>
@@ -29414,11 +29852,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="n">
+      <c r="A11" s="39" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>0.696679352836395</v>
@@ -29563,11 +30001,11 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38" t="n">
+      <c r="A12" s="39" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>0.490777375041472</v>
@@ -29712,11 +30150,11 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38" t="n">
+      <c r="A13" s="39" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>0.890602932834544</v>
@@ -29861,11 +30299,11 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="38" t="n">
+      <c r="A14" s="39" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>0.843581307556558</v>
@@ -30010,11 +30448,11 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="38" t="n">
+      <c r="A15" s="39" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>0.917786468343038</v>
@@ -30159,11 +30597,11 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="38" t="n">
+      <c r="A16" s="39" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>1.30871696507911</v>
@@ -30308,11 +30746,11 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="38" t="n">
+      <c r="A17" s="39" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>1.03640122084963</v>
@@ -30457,11 +30895,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="38" t="n">
+      <c r="A18" s="39" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>1.32343927919961</v>
@@ -30606,11 +31044,11 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38" t="n">
+      <c r="A19" s="39" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>0.957583810389604</v>
@@ -30755,11 +31193,11 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="38" t="n">
+      <c r="A20" s="39" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>0.78919327230032</v>
@@ -30904,11 +31342,11 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38" t="n">
+      <c r="A21" s="39" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>0.677496874759135</v>
@@ -31053,11 +31491,11 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="38" t="n">
+      <c r="A22" s="39" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>1.17919424610651</v>
@@ -31202,11 +31640,11 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="38" t="n">
+      <c r="A23" s="39" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>1.30242640305248</v>
@@ -31351,11 +31789,11 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="38" t="n">
+      <c r="A24" s="39" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>1.5371869283035</v>
@@ -31500,11 +31938,11 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38" t="n">
+      <c r="A25" s="39" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>0.870380394863202</v>
@@ -31649,11 +32087,11 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="38" t="n">
+      <c r="A26" s="39" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>0.980299505894034</v>
@@ -31798,11 +32236,11 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="38" t="n">
+      <c r="A27" s="39" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>0.859326128372053</v>
@@ -31947,11 +32385,11 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="38" t="n">
+      <c r="A28" s="39" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>0.891929543959699</v>
@@ -32096,11 +32534,11 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="38" t="n">
+      <c r="A29" s="39" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>1.17989530674167</v>
@@ -32245,11 +32683,11 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="38" t="n">
+      <c r="A30" s="39" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>1.30381048486732</v>
@@ -32394,11 +32832,11 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="38" t="n">
+      <c r="A31" s="39" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>0.783143782275909</v>
@@ -32543,11 +32981,11 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="38" t="n">
+      <c r="A32" s="39" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>1.52125719465928</v>
@@ -32692,11 +33130,11 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="38" t="n">
+      <c r="A33" s="39" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>1.17122742818495</v>
@@ -32841,11 +33279,11 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="38" t="n">
+      <c r="A34" s="39" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>1.27751096717431</v>
@@ -32990,11 +33428,11 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38" t="n">
+      <c r="A35" s="39" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>0.836778993525371</v>
@@ -33139,11 +33577,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="38" t="n">
+      <c r="A36" s="39" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>0.943127233841216</v>
@@ -33288,11 +33726,11 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="38" t="n">
+      <c r="A37" s="39" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>1.19543488611044</v>
@@ -33437,11 +33875,11 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="38" t="n">
+      <c r="A38" s="39" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>1.38240585247373</v>
@@ -33586,11 +34024,11 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="38" t="n">
+      <c r="A39" s="39" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>2.17858895228589</v>
@@ -33735,11 +34173,11 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="38" t="n">
+      <c r="A40" s="39" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>1.46379265128056</v>
@@ -33884,11 +34322,11 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="38" t="n">
+      <c r="A41" s="39" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>2.35358221860933</v>
@@ -34033,11 +34471,11 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="38" t="n">
+      <c r="A42" s="39" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>1.55421696786157</v>
@@ -34255,10 +34693,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41:E41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -34269,717 +34707,704 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>406</v>
+      <c r="A1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>407</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>409</v>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="n">
+      <c r="A3" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>410</v>
+      <c r="E4" s="42" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="n">
-        <v>3</v>
+      <c r="A5" s="41" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="41" t="n">
+        <v>14</v>
+      </c>
+      <c r="C5" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="41" t="n">
-        <v>12</v>
+      <c r="E5" s="42" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="n">
-        <v>4</v>
+      <c r="A6" s="41" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="41" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="41" t="n">
-        <v>16</v>
+      <c r="E6" s="42" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="n">
-        <v>5</v>
+      <c r="A7" s="41" t="n">
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="41" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" s="42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="41" t="n">
+      <c r="E7" s="42" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="n">
-        <v>6</v>
+      <c r="A8" s="41" t="n">
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="41" t="n">
+        <v>21</v>
+      </c>
+      <c r="C8" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="n">
+      <c r="E8" s="42" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="n">
-        <v>7</v>
+      <c r="A9" s="41" t="n">
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="41" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="41" t="n">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="C9" s="42" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="42" t="n">
+        <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40" t="n">
-        <v>8</v>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="41" t="n">
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="41" t="n">
-        <v>6</v>
-      </c>
-      <c r="D10" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="41" t="n">
-        <v>17</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="F10" s="43"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="n">
+      <c r="A11" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="41" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" s="42" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="F11" s="42"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>410</v>
+      <c r="E12" s="42" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="41" t="n">
-        <v>15</v>
-      </c>
-      <c r="D13" s="41" t="n">
-        <v>9</v>
-      </c>
-      <c r="E13" s="41" t="n">
-        <v>15</v>
+      <c r="A13" s="41" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="42" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" s="42" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" s="42" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="n">
+      <c r="A14" s="41" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="42" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="41" t="n">
+      <c r="D14" s="42" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="42" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="41" t="n">
         <v>14</v>
       </c>
-      <c r="D14" s="41" t="n">
-        <v>10</v>
-      </c>
-      <c r="E14" s="41" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40" t="n">
-        <v>13</v>
-      </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="41" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" s="41" t="n">
-        <v>6</v>
-      </c>
-      <c r="E15" s="41" t="n">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40" t="n">
-        <v>14</v>
+      <c r="A16" s="41" t="n">
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40" t="n">
-        <v>15</v>
+    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="41" t="n">
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>410</v>
+        <v>34</v>
+      </c>
+      <c r="C17" s="42" t="n">
+        <v>23</v>
+      </c>
+      <c r="D17" s="42" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" s="42" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40" t="n">
+      <c r="A18" s="41" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="42" t="n">
+        <v>34</v>
+      </c>
+      <c r="D18" s="42" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="41" t="n">
-        <v>23</v>
-      </c>
-      <c r="D18" s="41" t="n">
+      <c r="E18" s="42" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="41" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="41" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="42" t="n">
         <v>17</v>
       </c>
-      <c r="E18" s="41" t="n">
-        <v>23</v>
+      <c r="D20" s="42" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" s="42" t="n">
+        <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="40" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="41" t="n">
-        <v>34</v>
-      </c>
-      <c r="D19" s="41" t="n">
-        <v>16</v>
-      </c>
-      <c r="E19" s="41" t="n">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="41" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="42" t="n">
+        <v>45</v>
+      </c>
+      <c r="D22" s="42" t="n">
+        <v>19</v>
+      </c>
+      <c r="E22" s="42" t="n">
         <v>25</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="40" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="40" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="41" t="n">
-        <v>17</v>
-      </c>
-      <c r="D21" s="41" t="n">
-        <v>19</v>
-      </c>
-      <c r="E21" s="41" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="40" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="41" t="n">
-        <v>45</v>
-      </c>
-      <c r="D23" s="41" t="n">
-        <v>19</v>
-      </c>
-      <c r="E23" s="41" t="n">
+      <c r="A23" s="41" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="42" t="n">
+        <v>69</v>
+      </c>
+      <c r="D23" s="42" t="n">
+        <v>20</v>
+      </c>
+      <c r="E23" s="42" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="41" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="41" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="42" t="n">
+        <v>18</v>
+      </c>
+      <c r="D25" s="42" t="n">
+        <v>14</v>
+      </c>
+      <c r="E25" s="42" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="41" t="n">
         <v>25</v>
       </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="F26" s="43"/>
     </row>
-    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="40" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="41" t="n">
-        <v>69</v>
-      </c>
-      <c r="D24" s="41" t="n">
-        <v>20</v>
-      </c>
-      <c r="E24" s="41" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="40" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="40" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="41" t="n">
-        <v>18</v>
-      </c>
-      <c r="D26" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="E26" s="41" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="40" t="n">
-        <v>25</v>
+    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="41" t="n">
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="42" t="n">
         <v>51</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="F27" s="42"/>
+      <c r="D27" s="42" t="n">
+        <v>36</v>
+      </c>
+      <c r="E27" s="42" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="40" t="n">
-        <v>26</v>
+      <c r="A28" s="41" t="n">
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="41" t="n">
-        <v>51</v>
-      </c>
-      <c r="D28" s="41" t="n">
-        <v>36</v>
-      </c>
-      <c r="E28" s="41" t="n">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C28" s="42" t="n">
+        <v>76</v>
+      </c>
+      <c r="D28" s="42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E28" s="42" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="40" t="n">
-        <v>27</v>
+      <c r="A29" s="41" t="n">
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="41" t="n">
-        <v>76</v>
-      </c>
-      <c r="D29" s="41" t="n">
-        <v>41</v>
-      </c>
-      <c r="E29" s="41" t="n">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="C29" s="42" t="n">
+        <v>32</v>
+      </c>
+      <c r="D29" s="42" t="n">
+        <v>42</v>
+      </c>
+      <c r="E29" s="42" t="n">
+        <v>40</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="40" t="n">
-        <v>28</v>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="41" t="n">
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="41" t="n">
-        <v>32</v>
-      </c>
-      <c r="D30" s="41" t="n">
-        <v>42</v>
-      </c>
-      <c r="E30" s="41" t="n">
-        <v>40</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="F30" s="43"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="40" t="n">
-        <v>29</v>
+      <c r="A31" s="41" t="n">
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="F31" s="42"/>
+        <v>414</v>
+      </c>
+      <c r="F31" s="43"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="40" t="n">
-        <v>30</v>
+      <c r="A32" s="41" t="n">
+        <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="F32" s="42"/>
+        <v>414</v>
+      </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="40" t="n">
-        <v>31</v>
+    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="41" t="n">
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>410</v>
+        <v>65</v>
+      </c>
+      <c r="C33" s="42" t="n">
+        <v>89</v>
+      </c>
+      <c r="D33" s="42" t="n">
+        <v>66</v>
+      </c>
+      <c r="E33" s="42" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="40" t="n">
-        <v>32</v>
+      <c r="A34" s="41" t="n">
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="41" t="n">
-        <v>89</v>
-      </c>
-      <c r="D34" s="41" t="n">
-        <v>66</v>
-      </c>
-      <c r="E34" s="41" t="n">
-        <v>44</v>
+        <v>67</v>
+      </c>
+      <c r="C34" s="42" t="n">
+        <v>83</v>
+      </c>
+      <c r="D34" s="42" t="n">
+        <v>53</v>
+      </c>
+      <c r="E34" s="42" t="n">
+        <v>47</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="40" t="n">
-        <v>33</v>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="41" t="n">
+        <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="41" t="n">
-        <v>83</v>
-      </c>
-      <c r="D35" s="41" t="n">
-        <v>53</v>
-      </c>
-      <c r="E35" s="41" t="n">
-        <v>47</v>
+        <v>69</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>414</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="40" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>410</v>
+    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="41" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="42" t="n">
+        <v>45</v>
+      </c>
+      <c r="D36" s="42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E36" s="42" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="40" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="41" t="n">
-        <v>45</v>
-      </c>
-      <c r="D37" s="41" t="n">
-        <v>41</v>
-      </c>
-      <c r="E37" s="41" t="n">
+      <c r="A37" s="41" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="42" t="n">
+        <v>112</v>
+      </c>
+      <c r="D37" s="42" t="n">
+        <v>79</v>
+      </c>
+      <c r="E37" s="42" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="41" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="41" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="42" t="n">
+        <v>123</v>
+      </c>
+      <c r="D39" s="42" t="n">
+        <v>85</v>
+      </c>
+      <c r="E39" s="42" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="40" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="41" t="n">
-        <v>112</v>
-      </c>
-      <c r="D38" s="41" t="n">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="41" t="n">
-        <v>51</v>
-      </c>
+      <c r="C40" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="F40" s="43"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="40" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="40" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="41" t="n">
-        <v>123</v>
-      </c>
-      <c r="D40" s="41" t="n">
-        <v>85</v>
-      </c>
-      <c r="E40" s="41" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="40" t="n">
-        <v>39</v>
+    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="41" t="n">
+        <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="F41" s="42"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="40" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="41" t="n">
+      <c r="C41" s="42" t="n">
         <v>87</v>
       </c>
-      <c r="D42" s="41" t="n">
+      <c r="D41" s="42" t="n">
         <v>87</v>
       </c>
-      <c r="E42" s="41" t="n">
+      <c r="E41" s="42" t="n">
         <v>55</v>
       </c>
     </row>
@@ -35002,577 +35427,577 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J33" activeCellId="1" sqref="C41:E41 J33"/>
+      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="14.7244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="16.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="44" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="45" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="45" width="16.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="45" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>406</v>
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>412</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>414</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>415</v>
+      <c r="C2" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="n">
+      <c r="A3" s="41" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="n">
+      <c r="A4" s="41" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="n">
+      <c r="A5" s="41" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="n">
+      <c r="A6" s="41" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="n">
+      <c r="A7" s="41" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="n">
+      <c r="A8" s="41" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="n">
+      <c r="A9" s="41" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40" t="n">
+      <c r="A10" s="41" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="n">
+      <c r="A11" s="41" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="n">
+      <c r="A12" s="41" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40" t="n">
+      <c r="A13" s="41" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="n">
+      <c r="A14" s="41" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40" t="n">
+      <c r="A15" s="41" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40" t="n">
+      <c r="A16" s="41" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40" t="n">
+      <c r="A17" s="41" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40" t="n">
+      <c r="A18" s="41" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="40" t="n">
+      <c r="A19" s="41" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="40" t="n">
+      <c r="A20" s="41" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="40" t="n">
+      <c r="A21" s="41" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40" t="n">
+      <c r="A22" s="41" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="40" t="n">
+      <c r="A23" s="41" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="40" t="n">
+      <c r="A24" s="41" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="40" t="n">
+      <c r="A25" s="41" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="40" t="n">
+      <c r="A26" s="41" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="40" t="n">
+      <c r="A27" s="41" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="40" t="n">
+      <c r="A28" s="41" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="40" t="n">
+      <c r="A29" s="41" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="40" t="n">
+      <c r="A30" s="41" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="40" t="n">
+      <c r="A31" s="41" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="40" t="n">
+      <c r="A32" s="41" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="40" t="n">
+      <c r="A33" s="41" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="40" t="n">
+      <c r="A34" s="41" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="40" t="n">
+      <c r="A35" s="41" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="40" t="n">
+      <c r="A36" s="41" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="40" t="n">
+      <c r="A37" s="41" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="40" t="n">
+      <c r="A38" s="41" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="40" t="n">
+      <c r="A39" s="41" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="40" t="n">
+      <c r="A40" s="41" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="40" t="n">
+      <c r="A41" s="41" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="40" t="n">
+      <c r="A42" s="41" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -306,13 +306,13 @@
     <t>ALT</t>
   </si>
   <si>
-    <t>sid_Bilirubin</t>
-  </si>
-  <si>
-    <t>pid_Bilirubin</t>
-  </si>
-  <si>
-    <t>Bilirubin</t>
+    <t>sid_bilirubin</t>
+  </si>
+  <si>
+    <t>pid_bilirubin</t>
+  </si>
+  <si>
+    <t>bilirubin</t>
   </si>
   <si>
     <t>sid_albumin</t>
@@ -351,13 +351,13 @@
     <t>BrdU_Kupffer</t>
   </si>
   <si>
-    <t>sid_BrdU_HSC</t>
-  </si>
-  <si>
-    <t>pid_BrdU_HSC</t>
-  </si>
-  <si>
-    <t>BrdU_HSC</t>
+    <t>sid_BrdU_BEC</t>
+  </si>
+  <si>
+    <t>pid_BrdU_BEC</t>
+  </si>
+  <si>
+    <t>BrdU_BEC</t>
   </si>
   <si>
     <t>sid_BrdU_SiriusRed</t>
@@ -1411,7 +1411,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1584,10 +1584,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1708,7 +1704,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2570,8 +2566,8 @@
   </sheetPr>
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE45" activeCellId="0" sqref="AE45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6491,7 +6487,7 @@
   <dimension ref="1:42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="AW2"/>
+      <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13818,7 +13814,7 @@
   <dimension ref="1:42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="AW2"/>
+      <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -21086,7 +21082,7 @@
   <dimension ref="A1:AX42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -27380,7 +27376,7 @@
   <dimension ref="1:42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW42" activeCellId="0" sqref="AW42"/>
+      <selection pane="topLeft" activeCell="AW42" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -34693,10 +34689,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -34875,7 +34871,6 @@
       <c r="E10" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="F10" s="43"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="41" t="n">
@@ -34898,7 +34893,7 @@
       <c r="A12" s="41" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="42" t="n">
@@ -34915,7 +34910,7 @@
       <c r="A13" s="41" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="42" t="n">
@@ -35148,7 +35143,6 @@
       <c r="E26" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="F26" s="43"/>
     </row>
     <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="41" t="n">
@@ -35217,7 +35211,6 @@
       <c r="E30" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="F30" s="43"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="41" t="n">
@@ -35235,7 +35228,6 @@
       <c r="E31" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="F31" s="43"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="41" t="n">
@@ -35389,7 +35381,6 @@
       <c r="E40" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="F40" s="43"/>
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="41" t="n">
@@ -35427,14 +35418,14 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
+      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="45" width="14.7244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="45" width="16.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="45" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="16.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="44" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35486,11 +35477,11 @@
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="41" t="n">
@@ -35499,11 +35490,11 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="41" t="n">
@@ -35512,11 +35503,11 @@
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="n">
@@ -35525,11 +35516,11 @@
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="41" t="n">
@@ -35538,11 +35529,11 @@
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="41" t="n">
@@ -35551,11 +35542,11 @@
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="41" t="n">
@@ -35564,11 +35555,11 @@
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="41" t="n">
@@ -35577,11 +35568,11 @@
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="41" t="n">
@@ -35590,11 +35581,11 @@
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="41" t="n">
@@ -35603,11 +35594,11 @@
       <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="41" t="n">
@@ -35616,11 +35607,11 @@
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="41" t="n">
@@ -35629,11 +35620,11 @@
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="41" t="n">
@@ -35642,11 +35633,11 @@
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="n">
@@ -35655,11 +35646,11 @@
       <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="41" t="n">
@@ -35668,11 +35659,11 @@
       <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="41" t="n">
@@ -35681,11 +35672,11 @@
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="41" t="n">
@@ -35694,11 +35685,11 @@
       <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="41" t="n">
@@ -35707,11 +35698,11 @@
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="41" t="n">
@@ -35720,11 +35711,11 @@
       <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="41" t="n">
@@ -35733,11 +35724,11 @@
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="41" t="n">
@@ -35746,11 +35737,11 @@
       <c r="B23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="41" t="n">
@@ -35759,11 +35750,11 @@
       <c r="B24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="41" t="n">
@@ -35772,11 +35763,11 @@
       <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="41" t="n">
@@ -35785,11 +35776,11 @@
       <c r="B26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="41" t="n">
@@ -35798,11 +35789,11 @@
       <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="41" t="n">
@@ -35811,11 +35802,11 @@
       <c r="B28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="41" t="n">
@@ -35824,11 +35815,11 @@
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="41" t="n">
@@ -35837,11 +35828,11 @@
       <c r="B30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="41" t="n">
@@ -35850,11 +35841,11 @@
       <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="41" t="n">
@@ -35863,11 +35854,11 @@
       <c r="B32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="41" t="n">
@@ -35876,11 +35867,11 @@
       <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="41" t="n">
@@ -35889,11 +35880,11 @@
       <c r="B34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="41" t="n">
@@ -35902,11 +35893,11 @@
       <c r="B35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="41" t="n">
@@ -35915,11 +35906,11 @@
       <c r="B36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="41" t="n">
@@ -35928,11 +35919,11 @@
       <c r="B37" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="41" t="n">
@@ -35941,11 +35932,11 @@
       <c r="B38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="41" t="n">
@@ -35954,11 +35945,11 @@
       <c r="B39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="41" t="n">
@@ -35967,11 +35958,11 @@
       <c r="B40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="41" t="n">
@@ -35980,11 +35971,11 @@
       <c r="B41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="41" t="n">
@@ -35993,11 +35984,11 @@
       <c r="B42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="536" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="536" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" state="visible" r:id="rId2"/>
@@ -1263,7 +1263,7 @@
     <t>CTGF</t>
   </si>
   <si>
-    <t>S100A4</t>
+    <t>S100a4</t>
   </si>
   <si>
     <t>NA</t>
@@ -1704,7 +1704,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2566,8 +2566,8 @@
   </sheetPr>
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6487,7 +6487,7 @@
   <dimension ref="1:42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13814,7 +13814,7 @@
   <dimension ref="1:42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -21082,7 +21082,7 @@
   <dimension ref="A1:AX42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -27376,7 +27376,7 @@
   <dimension ref="1:42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW42" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="AW42" activeCellId="0" sqref="AW42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -34691,8 +34691,8 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -35418,7 +35418,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="536" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="536" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" state="visible" r:id="rId2"/>
@@ -333,13 +333,13 @@
     <t>BrdU_HC</t>
   </si>
   <si>
-    <t>sid_BrdU_NHC</t>
-  </si>
-  <si>
-    <t>pid_BrdU_NHC</t>
-  </si>
-  <si>
-    <t>BrdU_NHC</t>
+    <t>sid_BrdU_NPC</t>
+  </si>
+  <si>
+    <t>pid_BrdU_NPC</t>
+  </si>
+  <si>
+    <t>BrdU_NPC</t>
   </si>
   <si>
     <t>sid_BrdU_Kupffer</t>
@@ -1704,7 +1704,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:AD42 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2566,8 +2566,8 @@
   </sheetPr>
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:AD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6487,7 +6487,7 @@
   <dimension ref="1:42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="AW2"/>
+      <selection pane="topLeft" activeCell="AW2" activeCellId="1" sqref="A2:AD42 AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13814,7 +13814,7 @@
   <dimension ref="1:42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="AW2"/>
+      <selection pane="topLeft" activeCell="AW2" activeCellId="1" sqref="A2:AD42 AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -21082,7 +21082,7 @@
   <dimension ref="A1:AX42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:AD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -27376,7 +27376,7 @@
   <dimension ref="1:42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW42" activeCellId="0" sqref="AW42"/>
+      <selection pane="topLeft" activeCell="AW42" activeCellId="1" sqref="A2:AD42 AW42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -34691,8 +34691,8 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="A2:AD42 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -35418,7 +35418,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
+      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="A2:AD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
